--- a/exercises/dennis/exercise_4/Task_2_subgrid_results/res_line/loading_percent.xlsx
+++ b/exercises/dennis/exercise_4/Task_2_subgrid_results/res_line/loading_percent.xlsx
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.30848926478353</v>
+        <v>10.30848926478237</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.35139586761241</v>
+        <v>9.351395867536464</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -406,7 +406,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.86199162415563</v>
+        <v>10.86199162447857</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -414,7 +414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.267775695401561</v>
+        <v>8.267775695331032</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -422,7 +422,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.021563090126341</v>
+        <v>8.021563090145863</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.17253956428176</v>
+        <v>11.17253956433922</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -438,7 +438,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.01526520630708</v>
+        <v>10.01526520638076</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -446,7 +446,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.28790840670876</v>
+        <v>10.28790840676977</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -454,7 +454,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.23717246781624</v>
+        <v>15.23717246768008</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -462,7 +462,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.72267071334513</v>
+        <v>14.722670713379</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -470,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.31530492214639</v>
+        <v>11.31530492207163</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -478,7 +478,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.29679688085377</v>
+        <v>17.29679688089858</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -486,7 +486,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.91159697458132</v>
+        <v>12.91159697462727</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -494,7 +494,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.81463307432431</v>
+        <v>16.81463307432572</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -502,7 +502,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.28416640646662</v>
+        <v>20.28416640650455</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -510,7 +510,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.48815102821096</v>
+        <v>16.48815102830777</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -518,7 +518,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.35139272703616</v>
+        <v>17.3513927270944</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -526,7 +526,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.02153696719557</v>
+        <v>15.02153696738214</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -534,7 +534,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.88868158514893</v>
+        <v>11.88868158520179</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -542,7 +542,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.99082945447066</v>
+        <v>17.9908294544705</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -550,7 +550,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.00617598832337</v>
+        <v>17.00617598822407</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -558,7 +558,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.52685583536055</v>
+        <v>21.52685583516651</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -566,7 +566,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.22642340273525</v>
+        <v>20.22642340277086</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -574,7 +574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.72482360467714</v>
+        <v>16.72482360460418</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -582,7 +582,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>16.49238964544594</v>
+        <v>16.49238964546641</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>18.69640859448847</v>
+        <v>18.69640859455014</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -598,7 +598,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>17.74791136290961</v>
+        <v>17.74791136288417</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -606,7 +606,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>11.66089907488525</v>
+        <v>11.66089907491358</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -614,7 +614,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>8.052867579940642</v>
+        <v>8.052867580020754</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -622,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>17.64009159515775</v>
+        <v>17.6400915952035</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -630,7 +630,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>21.17823555799818</v>
+        <v>21.17823555802935</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -638,7 +638,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>22.97946102196446</v>
+        <v>22.97946102199347</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -646,7 +646,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>22.05413847504836</v>
+        <v>22.0541384749679</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -654,7 +654,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>26.97741818951175</v>
+        <v>26.97741818942194</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -662,7 +662,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>34.8976727177332</v>
+        <v>34.89767271784886</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -670,7 +670,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>42.44058921463697</v>
+        <v>42.44058921473313</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -678,7 +678,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>43.90694958860863</v>
+        <v>43.90694958860484</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -686,7 +686,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>52.92476628686354</v>
+        <v>52.92476628696695</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -694,7 +694,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>58.21387292564722</v>
+        <v>58.21387292551452</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -702,7 +702,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>65.82325846583923</v>
+        <v>65.82325846573964</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -710,7 +710,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>73.82903956899275</v>
+        <v>73.82903956899675</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -718,7 +718,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>80.03229086981645</v>
+        <v>80.03229086985807</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -726,7 +726,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>93.68592573401041</v>
+        <v>93.68592573410498</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -734,7 +734,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>88.17855900050344</v>
+        <v>88.17855900059379</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -742,7 +742,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>95.34598513437311</v>
+        <v>95.34598513456122</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -750,7 +750,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>91.97033341281788</v>
+        <v>91.9703334129522</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -758,7 +758,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>101.1953079959696</v>
+        <v>101.1953079960952</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -766,7 +766,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>92.15528973088102</v>
+        <v>92.15528973086832</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -774,7 +774,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>95.06469687133041</v>
+        <v>95.06469687138167</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -782,7 +782,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>95.13532617102329</v>
+        <v>95.13532617098323</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -790,7 +790,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>82.99974647133267</v>
+        <v>82.99974647140969</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -798,7 +798,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>85.27787594745485</v>
+        <v>85.27787594756491</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -806,7 +806,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>82.19139797493783</v>
+        <v>82.19139797511258</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -814,7 +814,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>78.85404546079636</v>
+        <v>78.85404546078333</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -822,7 +822,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>75.34609383655665</v>
+        <v>75.34609383656415</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -830,7 +830,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>77.61294064810485</v>
+        <v>77.61294064788366</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -838,7 +838,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>70.10109856424559</v>
+        <v>70.10109856423958</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -846,7 +846,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>69.92005767297783</v>
+        <v>69.9200576729213</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -854,7 +854,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>66.00171753167733</v>
+        <v>66.00171753180776</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -862,7 +862,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>60.73745510320335</v>
+        <v>60.73745510314517</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -870,7 +870,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>60.94985193510778</v>
+        <v>60.94985193525826</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -878,7 +878,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>53.55248620984625</v>
+        <v>53.5524862096708</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -886,7 +886,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>58.56872155337718</v>
+        <v>58.56872155347309</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -894,7 +894,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>51.33240813780446</v>
+        <v>51.33240813781711</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -902,7 +902,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>42.9110632558403</v>
+        <v>42.91106325587424</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -910,7 +910,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>34.69626167663756</v>
+        <v>34.69626167660848</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -918,7 +918,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>27.19979956690988</v>
+        <v>27.19979956708561</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -926,7 +926,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>21.8441121928377</v>
+        <v>21.84411219281569</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -934,7 +934,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>8.753595753909028</v>
+        <v>8.753595753986431</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -942,7 +942,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7.680779843301313</v>
+        <v>7.680779843270638</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -950,7 +950,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>17.13480738165871</v>
+        <v>17.13480738161796</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -958,7 +958,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>32.28537018885607</v>
+        <v>32.28537018873883</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -966,7 +966,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>35.19769089255529</v>
+        <v>35.19769089240791</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -974,7 +974,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>47.11585947066877</v>
+        <v>47.11585947083472</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -982,7 +982,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>63.43452775787076</v>
+        <v>63.43452775781016</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -990,7 +990,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>73.13839642017491</v>
+        <v>73.13839642018645</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -998,7 +998,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>86.32270568226909</v>
+        <v>86.32270568220461</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>80.40745251510084</v>
+        <v>80.4074525151366</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>86.02761334174662</v>
+        <v>86.02761334167789</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>88.32328493364781</v>
+        <v>88.32328493356331</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>97.47112842199927</v>
+        <v>97.47112842190693</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>90.46714753725483</v>
+        <v>90.46714753713668</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>80.9240168504061</v>
+        <v>80.92401685022735</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>81.19521631345351</v>
+        <v>81.19521631331116</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>68.57457832612069</v>
+        <v>68.57457832601692</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>74.12894651903312</v>
+        <v>74.12894651899884</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>68.96042001064957</v>
+        <v>68.96042001048023</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>52.46813222751234</v>
+        <v>52.46813222742459</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>55.44154243611835</v>
+        <v>55.44154243613114</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>43.70074095232027</v>
+        <v>43.70074095243292</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>31.16768882535705</v>
+        <v>31.16768882520506</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>22.57491758408467</v>
+        <v>22.5749175840319</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>17.38505380171237</v>
+        <v>17.38505380176643</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>10.34299449053841</v>
+        <v>10.34299449051046</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7.620053915299742</v>
+        <v>7.620053915176923</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>9.699056195259647</v>
+        <v>9.699056195305438</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7.705250126984418</v>
+        <v>7.705250126980087</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>9.900087481197009</v>
+        <v>9.900087481136808</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>9.966758517954535</v>
+        <v>9.966758517962177</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>13.92709617104979</v>
+        <v>13.9270961710012</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>9.742736227180119</v>
+        <v>9.742736227166825</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>13.29457415679172</v>
+        <v>13.29457415670773</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>11.69421267675279</v>
+        <v>11.69421267667824</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>15.01114646773598</v>
+        <v>15.0111464677865</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>12.26587860922506</v>
+        <v>12.26587860920825</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>13.38206031311562</v>
+        <v>13.3820603132111</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>15.68866900826402</v>
+        <v>15.6886690083488</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>18.0079644887924</v>
+        <v>18.0079644889971</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>15.1875392581518</v>
+        <v>15.18753925821325</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>17.01513338626517</v>
+        <v>17.01513338637108</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>14.91285354617105</v>
+        <v>14.91285354627525</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>11.70167315224935</v>
+        <v>11.70167315225227</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>11.15445203176517</v>
+        <v>11.15445203181184</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>12.58270671281764</v>
+        <v>12.5827067128533</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>18.1727592020941</v>
+        <v>18.17275920211081</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>15.38698712418181</v>
+        <v>15.38698712420926</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>19.63978555060315</v>
+        <v>19.63978555077949</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>20.89334942470301</v>
+        <v>20.89334942471822</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>20.72807262960419</v>
+        <v>20.72807262958134</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>18.70979588816311</v>
+        <v>18.70979588814546</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>18.14889005225604</v>
+        <v>18.14889005224842</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>21.55498550104983</v>
+        <v>21.55498550100549</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>13.50575081569505</v>
+        <v>13.50575081559335</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>16.26763692197179</v>
+        <v>16.26763692209042</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>9.784057570930148</v>
+        <v>9.784057570937184</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>15.74255164695487</v>
+        <v>15.74255164685249</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>16.33304315489417</v>
+        <v>16.33304315487119</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>19.17041291475211</v>
+        <v>19.1704129148549</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>22.19056829812808</v>
+        <v>22.19056829806247</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>24.54843968354794</v>
+        <v>24.54843968344658</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>35.86403566211291</v>
+        <v>35.86403566199797</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>36.36228704110788</v>
+        <v>36.36228704113551</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>49.78305119210027</v>
+        <v>49.78305119219449</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>58.45753673761881</v>
+        <v>58.45753673768876</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>62.25102339741597</v>
+        <v>62.25102339736481</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>65.97331001495719</v>
+        <v>65.97331001490603</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1478,7 +1478,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>79.04382262644108</v>
+        <v>79.04382262645106</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1486,7 +1486,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>84.45287668985175</v>
+        <v>84.45287669002332</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>89.26730474411303</v>
+        <v>89.26730474407796</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>90.87255542699246</v>
+        <v>90.872555427105</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>96.71402142399802</v>
+        <v>96.7140214240288</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>97.42546910445698</v>
+        <v>97.42546910442752</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>91.00315389665768</v>
+        <v>91.00315389684121</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>98.0657927733108</v>
+        <v>98.06579277351192</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>93.04670425157313</v>
+        <v>93.04670425167981</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1550,7 +1550,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>89.44979270712722</v>
+        <v>89.44979270715089</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1558,7 +1558,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>86.11720950058593</v>
+        <v>86.11720950054902</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1566,7 +1566,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>86.37967209670967</v>
+        <v>86.37967209681148</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1574,7 +1574,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>84.25034507616147</v>
+        <v>84.25034507621136</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1582,7 +1582,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>83.65297263052143</v>
+        <v>83.65297263053753</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>78.21702721738633</v>
+        <v>78.21702721748896</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>70.79893879360043</v>
+        <v>70.79893879357691</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>73.14654825433735</v>
+        <v>73.14654825425121</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1614,7 +1614,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>75.01427435926486</v>
+        <v>75.01427435942645</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1622,7 +1622,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>61.48421665036695</v>
+        <v>61.48421665050697</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>66.31045678868114</v>
+        <v>66.31045678862176</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>58.51707153625377</v>
+        <v>58.51707153648855</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>52.55667877567807</v>
+        <v>52.55667877567197</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>54.323493102967</v>
+        <v>54.32349310293398</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>49.24727792949074</v>
+        <v>49.24727792961269</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>49.66052657160947</v>
+        <v>49.66052657162487</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>39.57799625632761</v>
+        <v>39.5779962563939</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1686,7 +1686,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>29.51429107555441</v>
+        <v>29.51429107560312</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1694,7 +1694,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>23.63229537910117</v>
+        <v>23.63229537920703</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>13.5559841512443</v>
+        <v>13.55598415115681</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>9.512027580916461</v>
+        <v>9.51202758096141</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>16.57784201487051</v>
+        <v>16.57784201490539</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>30.98155689047045</v>
+        <v>30.98155689034439</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1734,7 +1734,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>39.38629140653453</v>
+        <v>39.38629140647802</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1742,7 +1742,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>51.28603556652261</v>
+        <v>51.28603556654837</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1750,7 +1750,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>61.74136547363449</v>
+        <v>61.74136547352595</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1758,7 +1758,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>68.00126904844664</v>
+        <v>68.00126904857908</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1766,7 +1766,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>77.56185829905978</v>
+        <v>77.56185829905641</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1774,7 +1774,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>86.1896016293249</v>
+        <v>86.18960162918849</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1782,7 +1782,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>87.52908535733212</v>
+        <v>87.52908535734505</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1790,7 +1790,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>88.45322555352166</v>
+        <v>88.45322555354585</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1798,7 +1798,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>96.24492631059363</v>
+        <v>96.24492631056943</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1806,7 +1806,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>84.1335916252029</v>
+        <v>84.1335916251679</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1814,7 +1814,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>89.4204207443657</v>
+        <v>89.42042074429447</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1822,7 +1822,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>83.91364061643294</v>
+        <v>83.91364061647126</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1830,7 +1830,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>72.31353907620318</v>
+        <v>72.31353907621569</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1838,7 +1838,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>68.65913460994385</v>
+        <v>68.65913460995871</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1846,7 +1846,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>62.23686950812316</v>
+        <v>62.23686950815023</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1854,7 +1854,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>62.43587748673342</v>
+        <v>62.43587748668558</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1862,7 +1862,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>51.79118925102362</v>
+        <v>51.79118925095849</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1870,7 +1870,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>39.50636749590426</v>
+        <v>39.50636749580102</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1878,7 +1878,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>34.6708951495851</v>
+        <v>34.67089514959543</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1886,7 +1886,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>29.09803956606974</v>
+        <v>29.09803956616217</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1894,7 +1894,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>22.47113789175555</v>
+        <v>22.47113789180221</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1902,7 +1902,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>12.34364084641622</v>
+        <v>12.34364084642764</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1910,7 +1910,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7.842693159336815</v>
+        <v>7.84269315928767</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1918,7 +1918,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>8.550108551004381</v>
+        <v>8.55010855102495</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1926,7 +1926,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>8.233998569757794</v>
+        <v>8.233998569843086</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1934,7 +1934,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>8.693770147670731</v>
+        <v>8.693770147689483</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1942,7 +1942,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7.773785265574487</v>
+        <v>7.773785265678579</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1950,7 +1950,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>8.8647344474116</v>
+        <v>8.864734447497625</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1958,7 +1958,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>10.54012522378406</v>
+        <v>10.5401252240835</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1966,7 +1966,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>13.08191420675327</v>
+        <v>13.08191420675921</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1974,7 +1974,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>10.37718744543943</v>
+        <v>10.37718744529971</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1982,7 +1982,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>11.11708473679853</v>
+        <v>11.11708473675067</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1990,7 +1990,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>11.80448166561186</v>
+        <v>11.80448166556134</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -1998,7 +1998,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>9.834288667254814</v>
+        <v>9.834288667258964</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2006,7 +2006,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>14.27682086717998</v>
+        <v>14.27682086720724</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2014,7 +2014,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>16.01354563759698</v>
+        <v>16.01354563769551</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2022,7 +2022,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>18.20831452351249</v>
+        <v>18.20831452347531</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2030,7 +2030,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>11.63406947475034</v>
+        <v>11.63406947459907</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2038,7 +2038,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>13.69599321069918</v>
+        <v>13.69599321061081</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2046,7 +2046,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>17.51301637478783</v>
+        <v>17.51301637493075</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2054,7 +2054,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>18.74835109687976</v>
+        <v>18.74835109680341</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2062,7 +2062,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>14.59823453247085</v>
+        <v>14.59823453241072</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2070,7 +2070,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>15.91880538331638</v>
+        <v>15.9188053832081</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2078,7 +2078,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>24.88485894682496</v>
+        <v>24.88485894677967</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2086,7 +2086,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>20.69116715625272</v>
+        <v>20.69116715621253</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2094,7 +2094,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>19.79236049303512</v>
+        <v>19.79236049311971</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2102,7 +2102,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>24.02194994642997</v>
+        <v>24.02194994658278</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2110,7 +2110,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>22.22659569807341</v>
+        <v>22.22659569802646</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2118,7 +2118,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>17.13132006507371</v>
+        <v>17.13132006509595</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2126,7 +2126,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>14.95720634015749</v>
+        <v>14.95720634021802</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2134,7 +2134,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>16.92729441711441</v>
+        <v>16.92729441708077</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2142,7 +2142,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>12.91053965395827</v>
+        <v>12.91053965404543</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2150,7 +2150,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>13.65422782675271</v>
+        <v>13.65422782672656</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2158,7 +2158,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>14.22768691470238</v>
+        <v>14.22768691480049</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2166,7 +2166,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>14.56094807062725</v>
+        <v>14.5609480706626</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2174,7 +2174,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>19.25966583726315</v>
+        <v>19.25966583733086</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2182,7 +2182,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>22.55115092097726</v>
+        <v>22.55115092108947</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2190,7 +2190,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>20.69112285839617</v>
+        <v>20.69112285856809</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2198,7 +2198,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>36.07763369342835</v>
+        <v>36.07763369350178</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2206,7 +2206,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>43.71640289290916</v>
+        <v>43.71640289288154</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2214,7 +2214,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>50.48076213186686</v>
+        <v>50.48076213192536</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2222,7 +2222,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>54.52314481781417</v>
+        <v>54.52314481789474</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2230,7 +2230,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>65.26909252025744</v>
+        <v>65.26909252030154</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2238,7 +2238,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>67.81085236049262</v>
+        <v>67.81085236062044</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2246,7 +2246,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>77.72305933931115</v>
+        <v>77.72305933932162</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2254,7 +2254,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>82.31714013325869</v>
+        <v>82.31714013338174</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2262,7 +2262,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>85.30096878998131</v>
+        <v>85.30096879012544</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2270,7 +2270,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>96.74611597165833</v>
+        <v>96.74611597178692</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2278,7 +2278,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>94.07628078956633</v>
+        <v>94.07628078947164</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2286,7 +2286,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>89.95986132023941</v>
+        <v>89.95986132024467</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2294,7 +2294,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>95.88756523075885</v>
+        <v>95.8875652308995</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2302,7 +2302,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>93.1584460633286</v>
+        <v>93.15844606334628</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2310,7 +2310,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>92.67853426154858</v>
+        <v>92.67853426150091</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2318,7 +2318,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>89.44400607874221</v>
+        <v>89.44400607869026</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2326,7 +2326,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>87.86270512303031</v>
+        <v>87.86270512306345</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2334,7 +2334,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>81.79301207825152</v>
+        <v>81.79301207835805</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2342,7 +2342,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>87.00886805075656</v>
+        <v>87.00886805062646</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2350,7 +2350,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>81.47580737997431</v>
+        <v>81.47580737987633</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2358,7 +2358,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>80.30162981750883</v>
+        <v>80.30162981749805</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2366,7 +2366,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>76.99503059060375</v>
+        <v>76.99503059055121</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2374,7 +2374,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>71.26235444881289</v>
+        <v>71.26235444875756</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2382,7 +2382,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>68.07204947381531</v>
+        <v>68.07204947371601</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2390,7 +2390,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>66.93605262806732</v>
+        <v>66.93605262811644</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2398,7 +2398,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>62.05863056721815</v>
+        <v>62.05863056720685</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2406,7 +2406,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>61.29368185296878</v>
+        <v>61.2936818529944</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2414,7 +2414,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>55.9050166029057</v>
+        <v>55.90501660291323</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2422,7 +2422,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>51.73960630946964</v>
+        <v>51.73960630955911</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2430,7 +2430,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>54.24911095911163</v>
+        <v>54.24911095906043</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2438,7 +2438,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>48.15018166893154</v>
+        <v>48.15018166898651</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2446,7 +2446,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>40.88801238584779</v>
+        <v>40.88801238580258</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2454,7 +2454,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>24.28167887566352</v>
+        <v>24.28167887580651</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2462,7 +2462,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>18.92181953719273</v>
+        <v>18.9218195371613</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2470,7 +2470,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>9.948747756372303</v>
+        <v>9.948747756237797</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2478,7 +2478,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>8.178420103608033</v>
+        <v>8.178420103570025</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2486,7 +2486,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>18.89788159908642</v>
+        <v>18.89788159904996</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2494,7 +2494,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>32.02252751690504</v>
+        <v>32.02252751667012</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2502,7 +2502,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>36.63515051271708</v>
+        <v>36.63515051262645</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2510,7 +2510,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>47.78023057135092</v>
+        <v>47.78023057144392</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2518,7 +2518,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>61.02006778741168</v>
+        <v>61.02006778744055</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2526,7 +2526,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>64.61432015168988</v>
+        <v>64.61432015172423</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2534,7 +2534,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>80.39863121423578</v>
+        <v>80.3986312141818</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2542,7 +2542,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>86.59153246480352</v>
+        <v>86.59153246492423</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2550,7 +2550,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>86.7893710459541</v>
+        <v>86.78937104605824</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2558,7 +2558,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>86.85912736768591</v>
+        <v>86.85912736761749</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2566,7 +2566,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>87.52888294024849</v>
+        <v>87.52888294035407</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2574,7 +2574,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>81.95696332175572</v>
+        <v>81.95696332191434</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2582,7 +2582,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>77.52168105182469</v>
+        <v>77.52168105184619</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2590,7 +2590,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>81.25054771441148</v>
+        <v>81.25054771415931</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2598,7 +2598,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>68.35395318881025</v>
+        <v>68.35395318892201</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2606,7 +2606,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>69.96529136053724</v>
+        <v>69.96529136064407</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2614,7 +2614,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>62.43678687614371</v>
+        <v>62.43678687620326</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2622,7 +2622,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>63.77827632534927</v>
+        <v>63.7782763252551</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2630,7 +2630,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>55.63868552942497</v>
+        <v>55.63868552953826</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2638,7 +2638,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>45.14671005568434</v>
+        <v>45.14671005577247</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2646,7 +2646,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>33.04577418619966</v>
+        <v>33.04577418629909</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2654,7 +2654,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>25.4546621772037</v>
+        <v>25.45466217719359</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2662,7 +2662,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>13.95052960692628</v>
+        <v>13.95052960678343</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2670,7 +2670,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>13.7331939878546</v>
+        <v>13.73319398785089</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2678,7 +2678,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>10.42662285901268</v>
+        <v>10.42662285891812</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2686,7 +2686,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7.614858901096152</v>
+        <v>7.614858901124884</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2694,7 +2694,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>14.24006801413559</v>
+        <v>14.24006801413118</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2702,7 +2702,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>9.358884336145289</v>
+        <v>9.358884336267764</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2710,7 +2710,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>15.00567794488489</v>
+        <v>15.00567794481532</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2718,7 +2718,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7.960522686129931</v>
+        <v>7.960522686078801</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2726,7 +2726,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>11.26664448075454</v>
+        <v>11.26664448082025</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2734,7 +2734,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>8.342360272963449</v>
+        <v>8.342360272929159</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2742,7 +2742,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>14.96757204424309</v>
+        <v>14.96757204434681</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2750,7 +2750,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>8.255551093401495</v>
+        <v>8.255551093430181</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2758,7 +2758,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>14.15463487369852</v>
+        <v>14.15463487379929</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2766,7 +2766,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>14.6654387480482</v>
+        <v>14.66543874798335</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2774,7 +2774,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>9.351478370916057</v>
+        <v>9.351478370915551</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2782,7 +2782,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>14.29891034029737</v>
+        <v>14.29891034025306</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2790,7 +2790,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>15.27732236158309</v>
+        <v>15.27732236149065</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2798,7 +2798,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>13.2852308185459</v>
+        <v>13.28523081854894</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2806,7 +2806,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>11.23606232535935</v>
+        <v>11.23606232534616</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2814,7 +2814,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>15.28799854170823</v>
+        <v>15.28799854168835</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2822,7 +2822,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>16.23295955343518</v>
+        <v>16.23295955350446</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2830,7 +2830,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>19.16402208522309</v>
+        <v>19.16402208533931</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2838,7 +2838,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>18.15827303105221</v>
+        <v>18.15827303084715</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2846,7 +2846,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>17.22921410369085</v>
+        <v>17.22921410367063</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2854,7 +2854,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>14.71538130390864</v>
+        <v>14.71538130401012</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2862,7 +2862,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>25.50679288596213</v>
+        <v>25.50679288596153</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2870,7 +2870,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>21.25413738799883</v>
+        <v>21.25413738815932</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2878,7 +2878,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>19.79440906274204</v>
+        <v>19.79440906266783</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2886,7 +2886,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>21.44033455486923</v>
+        <v>21.44033455479363</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2894,7 +2894,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>20.30620022704194</v>
+        <v>20.30620022718103</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2902,7 +2902,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>15.85451598880696</v>
+        <v>15.85451598875341</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2910,7 +2910,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>13.60752360407987</v>
+        <v>13.60752360414965</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2918,7 +2918,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>10.20988309290803</v>
+        <v>10.20988309296859</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2926,7 +2926,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>14.5505016281476</v>
+        <v>14.55050162817313</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2934,7 +2934,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>18.41459028186882</v>
+        <v>18.41459028200155</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2942,7 +2942,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>19.49190405853959</v>
+        <v>19.49190405851054</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2950,7 +2950,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>22.21019630825477</v>
+        <v>22.21019630825076</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2958,7 +2958,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>32.61438556864064</v>
+        <v>32.61438556868877</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2966,7 +2966,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>29.68545853214599</v>
+        <v>29.68545853209592</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2974,7 +2974,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>39.98203704841373</v>
+        <v>39.98203704826091</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2982,7 +2982,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>44.26009298755231</v>
+        <v>44.26009298751922</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2990,7 +2990,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>58.47827747177243</v>
+        <v>58.4782774719784</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -2998,7 +2998,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>65.693819096594</v>
+        <v>65.69381909676952</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3006,7 +3006,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>73.08226609865626</v>
+        <v>73.08226609872148</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3014,7 +3014,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>75.77423037594005</v>
+        <v>75.77423037608844</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3022,7 +3022,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>82.39009350425644</v>
+        <v>82.39009350429961</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3030,7 +3030,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>92.02254385670776</v>
+        <v>92.02254385658952</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3038,7 +3038,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>88.27057387285393</v>
+        <v>88.27057387277284</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3046,7 +3046,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>93.43184915667169</v>
+        <v>93.43184915671058</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3054,7 +3054,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>100.1012719804412</v>
+        <v>100.1012719804367</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3062,7 +3062,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>93.55230886702466</v>
+        <v>93.55230886708561</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3070,7 +3070,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>98.69456611120472</v>
+        <v>98.6945661112931</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3078,7 +3078,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>94.04142601186187</v>
+        <v>94.04142601170398</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3086,7 +3086,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>92.54734755733125</v>
+        <v>92.5473475574024</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3094,7 +3094,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>93.6800062243076</v>
+        <v>93.68000622440566</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3102,7 +3102,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>88.41121040387401</v>
+        <v>88.41121040392254</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3110,7 +3110,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>82.74142596958035</v>
+        <v>82.74142596949935</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3118,7 +3118,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>82.0253063691578</v>
+        <v>82.02530636925593</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3126,7 +3126,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>80.32592953438566</v>
+        <v>80.32592953465219</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3134,7 +3134,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>78.25090818426521</v>
+        <v>78.25090818437481</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3142,7 +3142,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>69.85235021275639</v>
+        <v>69.85235021267367</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3150,7 +3150,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>67.57196338363455</v>
+        <v>67.57196338366582</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3158,7 +3158,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>60.61473094502687</v>
+        <v>60.61473094494413</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3166,7 +3166,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>56.38312653451041</v>
+        <v>56.38312653459513</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3174,7 +3174,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>60.31411057709632</v>
+        <v>60.31411057717558</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3182,7 +3182,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>53.09657989118715</v>
+        <v>53.09657989138697</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3190,7 +3190,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>53.09547352662683</v>
+        <v>53.09547352663466</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3198,7 +3198,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>50.27335695803686</v>
+        <v>50.27335695784863</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3206,7 +3206,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>39.88043663553955</v>
+        <v>39.88043663546236</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3214,7 +3214,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>36.32471553425283</v>
+        <v>36.32471553431512</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3222,7 +3222,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>26.09227944030934</v>
+        <v>26.09227944047727</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3230,7 +3230,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>23.53018474415983</v>
+        <v>23.5301847442615</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3238,7 +3238,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>14.63536900775491</v>
+        <v>14.63536900761983</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3246,7 +3246,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>7.615058950341083</v>
+        <v>7.615058950303755</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3254,7 +3254,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>15.40021668574941</v>
+        <v>15.40021668582953</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3262,7 +3262,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>32.00465890307816</v>
+        <v>32.00465890311766</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3270,7 +3270,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>46.04532217066344</v>
+        <v>46.04532217046918</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3278,7 +3278,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>50.37966662549741</v>
+        <v>50.37966662562285</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3286,7 +3286,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>55.10021105625732</v>
+        <v>55.10021105625792</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3294,7 +3294,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>63.59445672543802</v>
+        <v>63.59445672545144</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3302,7 +3302,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>80.00314563094786</v>
+        <v>80.00314563104858</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3310,7 +3310,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>82.84273812761349</v>
+        <v>82.8427381277523</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3318,7 +3318,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>87.15398032224429</v>
+        <v>87.15398032217342</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3326,7 +3326,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>89.16633060151062</v>
+        <v>89.16633060143967</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3334,7 +3334,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>87.00959144828816</v>
+        <v>87.00959144832179</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3342,7 +3342,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>83.70846286408077</v>
+        <v>83.70846286400872</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3350,7 +3350,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>81.86678428751379</v>
+        <v>81.86678428754013</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3358,7 +3358,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>83.31625251460231</v>
+        <v>83.3162525145932</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3366,7 +3366,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>70.73244709810916</v>
+        <v>70.73244709812728</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3374,7 +3374,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>71.49549665203455</v>
+        <v>71.49549665189066</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3382,7 +3382,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>58.49943179030853</v>
+        <v>58.49943179024124</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3390,7 +3390,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>66.2127307867428</v>
+        <v>66.21273078660501</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3398,7 +3398,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>45.75561265822089</v>
+        <v>45.75561265824618</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3406,7 +3406,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>45.26842720253579</v>
+        <v>45.26842720249366</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3414,7 +3414,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>30.76856095011436</v>
+        <v>30.76856095006879</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3422,7 +3422,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>25.60147987996045</v>
+        <v>25.60147987981395</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3430,7 +3430,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>22.35911943201783</v>
+        <v>22.35911943199717</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3438,7 +3438,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>15.45874291961014</v>
+        <v>15.45874291954764</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3446,7 +3446,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>7.614669705680131</v>
+        <v>7.614669705687342</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3454,7 +3454,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>8.398416748575199</v>
+        <v>8.398416748563498</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3462,7 +3462,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>8.573446187576209</v>
+        <v>8.573446187591014</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3470,7 +3470,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>13.11402739054793</v>
+        <v>13.1140273904538</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3478,7 +3478,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>12.69604068150843</v>
+        <v>12.69604068138312</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3486,7 +3486,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>12.8277747858393</v>
+        <v>12.82777478588895</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3494,7 +3494,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>13.90089497903465</v>
+        <v>13.90089497898601</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3502,7 +3502,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>11.15272620482588</v>
+        <v>11.15272620493324</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3510,7 +3510,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>11.47802399256719</v>
+        <v>11.47802399251938</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3518,7 +3518,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>14.96160842392094</v>
+        <v>14.96160842400636</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3526,7 +3526,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>17.62117175160291</v>
+        <v>17.62117175155493</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3534,7 +3534,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>17.58909724649187</v>
+        <v>17.58909724643799</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3542,7 +3542,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>11.96004188407512</v>
+        <v>11.96004188416132</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3550,7 +3550,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>11.42193744341614</v>
+        <v>11.42193744341652</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3558,7 +3558,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>12.94119252106402</v>
+        <v>12.94119252109986</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3566,7 +3566,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>15.0227191351248</v>
+        <v>15.02271913511434</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3574,7 +3574,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>15.43212823692995</v>
+        <v>15.43212823690097</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3582,7 +3582,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>17.99304831402992</v>
+        <v>17.99304831409644</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3590,7 +3590,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>13.87084529301926</v>
+        <v>13.87084529301944</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3598,7 +3598,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>17.52358014022947</v>
+        <v>17.52358014027301</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3606,7 +3606,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>22.63929524997888</v>
+        <v>22.63929525001095</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3614,7 +3614,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>17.24142617153385</v>
+        <v>17.24142617159437</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3622,7 +3622,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>13.81618216973254</v>
+        <v>13.81618216970661</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3630,7 +3630,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>21.23052656933647</v>
+        <v>21.23052656941499</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3638,7 +3638,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>20.41513328842757</v>
+        <v>20.41513328855984</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3646,7 +3646,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>14.24413452976379</v>
+        <v>14.24413452976302</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3654,7 +3654,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>24.9627306534437</v>
+        <v>24.96273065334369</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3662,7 +3662,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>19.80324078749522</v>
+        <v>19.8032407874872</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3670,7 +3670,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>16.9450511100055</v>
+        <v>16.94505111011479</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3678,7 +3678,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>16.79467075556845</v>
+        <v>16.79467075570119</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3686,7 +3686,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>10.30967734274849</v>
+        <v>10.30967734276175</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3694,7 +3694,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>17.26342649636898</v>
+        <v>17.26342649628816</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3702,7 +3702,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>15.60050552005022</v>
+        <v>15.60050552000478</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3710,7 +3710,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>16.78928666673343</v>
+        <v>16.78928666678787</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3718,7 +3718,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>20.28912758749735</v>
+        <v>20.28912758747927</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3726,7 +3726,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>21.29034015562944</v>
+        <v>21.2903401557862</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3734,7 +3734,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>30.2768627683669</v>
+        <v>30.27686276842745</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3742,7 +3742,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>36.13210587927754</v>
+        <v>36.1321058792677</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3750,7 +3750,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>49.47073324049637</v>
+        <v>49.47073324062975</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3758,7 +3758,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>56.09814285065519</v>
+        <v>56.09814285058591</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3766,7 +3766,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>61.02032412146274</v>
+        <v>61.02032412144369</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3774,7 +3774,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>66.59206952389046</v>
+        <v>66.59206952384638</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3782,7 +3782,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>76.24029522926141</v>
+        <v>76.24029522940039</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3790,7 +3790,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>80.52211562882168</v>
+        <v>80.52211562890039</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3798,7 +3798,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>87.49461985665121</v>
+        <v>87.49461985664112</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3806,7 +3806,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>89.42985177903078</v>
+        <v>89.4298517790796</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3814,7 +3814,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>97.29885657625537</v>
+        <v>97.29885657634654</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3822,7 +3822,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>96.00219655389026</v>
+        <v>96.00219655382649</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3830,7 +3830,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>94.88147596092172</v>
+        <v>94.88147596091079</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3838,7 +3838,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>93.93908194134642</v>
+        <v>93.93908194134015</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3846,7 +3846,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>98.6040257719129</v>
+        <v>98.6040257718835</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3854,7 +3854,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>91.50152525830973</v>
+        <v>91.50152525833587</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3862,7 +3862,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>84.0291609163085</v>
+        <v>84.02916091632075</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3870,7 +3870,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>84.31869413259162</v>
+        <v>84.31869413267846</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3878,7 +3878,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>85.64131011761611</v>
+        <v>85.6413101176238</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3886,7 +3886,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>81.10649194931003</v>
+        <v>81.10649194937967</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3894,7 +3894,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>76.44866808219727</v>
+        <v>76.44866808228934</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3902,7 +3902,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>76.73786308180792</v>
+        <v>76.73786308173393</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3910,7 +3910,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>72.52255303617103</v>
+        <v>72.5225530362812</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3918,7 +3918,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>66.9250839700443</v>
+        <v>66.92508397002302</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3926,7 +3926,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>64.79494220924632</v>
+        <v>64.79494220929378</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3934,7 +3934,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>62.96263792782404</v>
+        <v>62.96263792769995</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3942,7 +3942,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>64.36287047694501</v>
+        <v>64.36287047694761</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3950,7 +3950,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>56.30429012643946</v>
+        <v>56.30429012635258</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3958,7 +3958,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>49.75865985225069</v>
+        <v>49.75865985220705</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3966,7 +3966,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>46.95123370867304</v>
+        <v>46.95123370875736</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3974,7 +3974,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>46.87187674836073</v>
+        <v>46.87187674850883</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3982,7 +3982,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>42.56261831676071</v>
+        <v>42.5626183168504</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3990,7 +3990,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>22.85767695026262</v>
+        <v>22.85767695034245</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>22.15919077677329</v>
+        <v>22.15919077664649</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4006,7 +4006,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>12.31485384393736</v>
+        <v>12.31485384397889</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4014,7 +4014,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>8.832931194107051</v>
+        <v>8.832931194144464</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4022,7 +4022,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>15.10746887117699</v>
+        <v>15.10746887109045</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4030,7 +4030,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>29.92366384859504</v>
+        <v>29.92366384863037</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4038,7 +4038,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>38.14790041299735</v>
+        <v>38.14790041281466</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4046,7 +4046,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>48.29233981484948</v>
+        <v>48.29233981478848</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4054,7 +4054,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>57.10690147725291</v>
+        <v>57.10690147723005</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4062,7 +4062,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>66.00606963123791</v>
+        <v>66.00606963106642</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4070,7 +4070,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>77.17882036285289</v>
+        <v>77.17882036276593</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4078,7 +4078,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>76.7696210254756</v>
+        <v>76.76962102547931</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4086,7 +4086,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>83.35763947573768</v>
+        <v>83.35763947583207</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4094,7 +4094,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>83.27650936154942</v>
+        <v>83.27650936175824</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4102,7 +4102,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>90.95385567974304</v>
+        <v>90.95385567975252</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4110,7 +4110,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>88.55265163280008</v>
+        <v>88.55265163276998</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4118,7 +4118,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>84.14921877809515</v>
+        <v>84.1492187780126</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4126,7 +4126,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>80.45522820256167</v>
+        <v>80.45522820241884</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4134,7 +4134,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>73.82618783731834</v>
+        <v>73.82618783737281</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4142,7 +4142,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>69.94505109467993</v>
+        <v>69.9450510946139</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4150,7 +4150,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>64.42988019684972</v>
+        <v>64.42988019678214</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4158,7 +4158,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>51.87968727426846</v>
+        <v>51.87968727441719</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4166,7 +4166,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>51.77658937680666</v>
+        <v>51.77658937674149</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4174,7 +4174,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>45.00622977332085</v>
+        <v>45.00622977331744</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4182,7 +4182,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>30.90105054302289</v>
+        <v>30.90105054276109</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4190,7 +4190,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>27.36549836934271</v>
+        <v>27.36549836934912</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4198,7 +4198,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>17.97295718527577</v>
+        <v>17.97295718528344</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4206,7 +4206,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>10.94979227976738</v>
+        <v>10.94979227983749</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4214,7 +4214,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>9.328052985387567</v>
+        <v>9.328052985377372</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4222,7 +4222,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>7.655105023486196</v>
+        <v>7.655105023453023</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4230,7 +4230,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>13.22124351145625</v>
+        <v>13.2212435115925</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4238,7 +4238,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>12.16367986767928</v>
+        <v>12.16367986772637</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4246,7 +4246,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>13.15496677994788</v>
+        <v>13.15496677988358</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4254,7 +4254,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>14.69943308474606</v>
+        <v>14.6994330848867</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4262,7 +4262,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>13.02575733638819</v>
+        <v>13.02575733662529</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4270,7 +4270,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>10.92606148127172</v>
+        <v>10.92606148124426</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4278,7 +4278,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>10.31460445224887</v>
+        <v>10.31460445227263</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4286,7 +4286,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>13.11433497309676</v>
+        <v>13.11433497328707</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4294,7 +4294,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>10.46704292895418</v>
+        <v>10.46704292898215</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4302,7 +4302,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>14.63000770571012</v>
+        <v>14.6300077057572</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4310,7 +4310,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>10.19140775657382</v>
+        <v>10.19140775664157</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4318,7 +4318,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>10.24654276899555</v>
+        <v>10.24654276896365</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4326,7 +4326,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>12.39454598351915</v>
+        <v>12.39454598349204</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4334,7 +4334,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>13.27446376200211</v>
+        <v>13.27446376216583</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4342,7 +4342,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>17.26606782746989</v>
+        <v>17.26606782758413</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4350,7 +4350,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>10.81700016386363</v>
+        <v>10.81700016386807</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4358,7 +4358,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>12.95328472495479</v>
+        <v>12.95328472485109</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4366,7 +4366,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>15.48073013162974</v>
+        <v>15.48073013173478</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4374,7 +4374,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>12.84482591770932</v>
+        <v>12.84482591781196</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>17.29841154636005</v>
+        <v>17.29841154642204</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4390,7 +4390,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>17.1854369622348</v>
+        <v>17.18543696236922</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4398,7 +4398,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>21.45186872143301</v>
+        <v>21.45186872141579</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4406,7 +4406,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>18.69291124377636</v>
+        <v>18.69291124379624</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4414,7 +4414,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>27.80107170396145</v>
+        <v>27.80107170399377</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4422,7 +4422,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>23.24441051893665</v>
+        <v>23.24441051903788</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4430,7 +4430,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>23.23884328162634</v>
+        <v>23.23884328177891</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4438,7 +4438,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>23.2274857151806</v>
+        <v>23.22748571517735</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4446,7 +4446,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>19.64613531108176</v>
+        <v>19.64613531123769</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4454,7 +4454,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>27.69173604307669</v>
+        <v>27.69173604304155</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4462,7 +4462,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>31.75451071255183</v>
+        <v>31.75451071252159</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>25.50622818531673</v>
+        <v>25.5062281853162</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>33.57090329452291</v>
+        <v>33.57090329463849</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4486,7 +4486,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>36.1674003578069</v>
+        <v>36.16740035780405</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>39.60934980581596</v>
+        <v>39.60934980582696</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>34.44493349731483</v>
+        <v>34.44493349732112</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>48.07260350714029</v>
+        <v>48.0726035071346</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>47.24339068848919</v>
+        <v>47.24339068848244</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>45.75471849001289</v>
+        <v>45.75471849021748</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>53.82031110968582</v>
+        <v>53.82031110971649</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>56.24551060069446</v>
+        <v>56.24551060091545</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>56.35882233655123</v>
+        <v>56.35882233660811</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4558,7 +4558,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>55.35502441079062</v>
+        <v>55.35502441081843</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4566,7 +4566,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>55.92220957731002</v>
+        <v>55.92220957723989</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4574,7 +4574,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>58.7960969304667</v>
+        <v>58.79609693053419</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4582,7 +4582,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>62.88756783297271</v>
+        <v>62.88756783300333</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4590,7 +4590,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>59.80940375191882</v>
+        <v>59.80940375202955</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4598,7 +4598,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>65.00951543057263</v>
+        <v>65.00951543055474</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4606,7 +4606,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>64.59641958074316</v>
+        <v>64.59641958068376</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4614,7 +4614,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>64.88176292921625</v>
+        <v>64.88176292934827</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4622,7 +4622,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>68.54745742006459</v>
+        <v>68.54745742014914</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4630,7 +4630,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>62.46549771499609</v>
+        <v>62.46549771517287</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4638,7 +4638,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>66.40899542418221</v>
+        <v>66.40899542432311</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4646,7 +4646,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>60.18754166495878</v>
+        <v>60.18754166502601</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4654,7 +4654,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>61.18720377259044</v>
+        <v>61.18720377255321</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4662,7 +4662,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>56.77487278212055</v>
+        <v>56.77487278200837</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4670,7 +4670,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>56.92536332589585</v>
+        <v>56.92536332583037</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4678,7 +4678,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>51.56107945926175</v>
+        <v>51.56107945943619</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4686,7 +4686,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>48.54274500767139</v>
+        <v>48.54274500781005</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4694,7 +4694,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>49.30834085626271</v>
+        <v>49.30834085642887</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4702,7 +4702,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>42.54660659597993</v>
+        <v>42.54660659609581</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4710,7 +4710,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>34.61729179857513</v>
+        <v>34.617291798647</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4718,7 +4718,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>34.71775869999546</v>
+        <v>34.71775869990309</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4726,7 +4726,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>28.4904352029995</v>
+        <v>28.49043520283984</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4734,7 +4734,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>27.44556003275211</v>
+        <v>27.44556003280685</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4742,7 +4742,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>20.7871610187957</v>
+        <v>20.78716101871965</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4750,7 +4750,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>14.39461418013419</v>
+        <v>14.39461418011118</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4758,7 +4758,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>8.882890364640557</v>
+        <v>8.882890364465185</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4766,7 +4766,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>10.57319471223912</v>
+        <v>10.57319471216125</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4774,7 +4774,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>11.17109435079267</v>
+        <v>11.17109435081519</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4782,7 +4782,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>27.25915551541664</v>
+        <v>27.25915551528911</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4790,7 +4790,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>38.25696610586191</v>
+        <v>38.25696610586554</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4798,7 +4798,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>48.88472726996205</v>
+        <v>48.88472726988964</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4806,7 +4806,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>62.95659933086224</v>
+        <v>62.95659933081242</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4814,7 +4814,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>73.45600224481585</v>
+        <v>73.45600224466794</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4822,7 +4822,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>75.31245257903566</v>
+        <v>75.31245257905475</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4830,7 +4830,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>79.08560316308947</v>
+        <v>79.08560316297934</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4838,7 +4838,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>93.72038349409382</v>
+        <v>93.72038349405727</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4846,7 +4846,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>100.2824534213736</v>
+        <v>100.2824534215522</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4854,7 +4854,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>97.3048718343547</v>
+        <v>97.3048718344083</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4862,7 +4862,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>105.3577150139742</v>
+        <v>105.3577150139789</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4870,7 +4870,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>111.5202184173458</v>
+        <v>111.5202184173083</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4878,7 +4878,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>103.1633254458412</v>
+        <v>103.1633254458164</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4886,7 +4886,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>95.1224880037993</v>
+        <v>95.12248800372397</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4894,7 +4894,7 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>93.39753489010846</v>
+        <v>93.3975348899976</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4902,7 +4902,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>95.9340789853337</v>
+        <v>95.93407898530482</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4910,7 +4910,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>84.91543941845615</v>
+        <v>84.91543941832211</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4918,7 +4918,7 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>74.75289250394511</v>
+        <v>74.75289250402352</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4926,7 +4926,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>65.74691508630725</v>
+        <v>65.74691508625136</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4934,7 +4934,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>67.18895942565223</v>
+        <v>67.18895942559247</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4942,7 +4942,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>53.11602577115699</v>
+        <v>53.11602577115278</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4950,7 +4950,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>36.81816080405755</v>
+        <v>36.81816080398846</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4958,7 +4958,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>33.08159588291622</v>
+        <v>33.08159588276745</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4966,7 +4966,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>24.41292367831968</v>
+        <v>24.41292367808466</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4974,7 +4974,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>15.63296117674177</v>
+        <v>15.63296117670272</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4982,7 +4982,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>11.41043869270139</v>
+        <v>11.41043869266863</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4990,7 +4990,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>10.67432164472683</v>
+        <v>10.67432164466036</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -4998,7 +4998,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>9.967392265669762</v>
+        <v>9.967392265634734</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5006,7 +5006,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>7.7467667907934</v>
+        <v>7.74676679073871</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>9.839560453700024</v>
+        <v>9.839560453778851</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>10.90102852758538</v>
+        <v>10.90102852761799</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>9.857562873879592</v>
+        <v>9.857562873913043</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>12.96360423616897</v>
+        <v>12.9636042363721</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>8.781997277468729</v>
+        <v>8.781997277506481</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>9.104905192449776</v>
+        <v>9.104905192312211</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>11.37695958935035</v>
+        <v>11.37695958942497</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>14.440013818007</v>
+        <v>14.44001381795568</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5078,7 +5078,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>16.76169081212692</v>
+        <v>16.76169081217734</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5086,7 +5086,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>14.15878005312213</v>
+        <v>14.15878005313511</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5094,7 +5094,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>13.45233318785772</v>
+        <v>13.4523331878825</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5102,7 +5102,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>11.44227967528971</v>
+        <v>11.44227967541351</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5110,7 +5110,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>12.57973598407225</v>
+        <v>12.57973598392334</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5118,7 +5118,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>15.38598210588108</v>
+        <v>15.38598210593748</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5126,7 +5126,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>13.12624598104907</v>
+        <v>13.12624598110236</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5134,7 +5134,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>15.16719831905112</v>
+        <v>15.16719831915131</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5142,7 +5142,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>17.1719440668791</v>
+        <v>17.1719440668392</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5150,7 +5150,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>13.99810529015376</v>
+        <v>13.99810529017644</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5158,7 +5158,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>16.6764155329818</v>
+        <v>16.67641553310102</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5166,7 +5166,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>20.96345578071361</v>
+        <v>20.96345578062369</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5174,7 +5174,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>29.89257762259163</v>
+        <v>29.89257762259886</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5182,7 +5182,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>28.13867108746464</v>
+        <v>28.13867108739621</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5190,7 +5190,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>36.54272760344766</v>
+        <v>36.54272760333408</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5198,7 +5198,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>33.59938263613311</v>
+        <v>33.59938263612752</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5206,7 +5206,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>42.63487654075542</v>
+        <v>42.63487654062368</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5214,7 +5214,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>50.97710625452674</v>
+        <v>50.9771062547037</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5222,7 +5222,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>45.35757175933167</v>
+        <v>45.35757175937712</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>47.56955906358832</v>
+        <v>47.56955906353721</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>53.31070208460812</v>
+        <v>53.31070208450966</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>61.13141023522088</v>
+        <v>61.13141023527384</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>69.09016566826915</v>
+        <v>69.09016566862216</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>62.39038594281639</v>
+        <v>62.39038594272602</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>62.37405694145585</v>
+        <v>62.37405694144426</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>64.12614334363117</v>
+        <v>64.12614334378472</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>61.4277399228779</v>
+        <v>61.4277399229357</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>63.16136632432022</v>
+        <v>63.16136632429527</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>59.62876175205115</v>
+        <v>59.6287617521868</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>54.64849830115863</v>
+        <v>54.64849830127832</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>58.34420509028948</v>
+        <v>58.34420509037761</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>47.24658222332626</v>
+        <v>47.24658222352539</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>49.66622285418635</v>
+        <v>49.66622285419482</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>37.7921744832587</v>
+        <v>37.79217448319588</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>43.2213196542749</v>
+        <v>43.22131965437661</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>37.31143880804029</v>
+        <v>37.31143880805329</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>37.83115310260082</v>
+        <v>37.83115310252844</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>33.6115236019545</v>
+        <v>33.61152360196265</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>21.93110136064265</v>
+        <v>21.93110136052525</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>23.89824062666491</v>
+        <v>23.89824062653814</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>24.41957555981639</v>
+        <v>24.41957555995665</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>20.86814584457989</v>
+        <v>20.86814584454212</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>26.28184888898885</v>
+        <v>26.28184888897753</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>31.14582427077186</v>
+        <v>31.14582427068119</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>32.6770286802863</v>
+        <v>32.67702868025047</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>26.98407398285264</v>
+        <v>26.98407398287634</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5446,7 +5446,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>35.06089469278268</v>
+        <v>35.06089469260387</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5454,7 +5454,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>34.40047345360616</v>
+        <v>34.40047345349732</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5462,7 +5462,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>34.9619724754153</v>
+        <v>34.96197247550249</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5470,7 +5470,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>43.32967413543682</v>
+        <v>43.32967413557791</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5478,7 +5478,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>39.65857152501281</v>
+        <v>39.65857152493331</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5486,7 +5486,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>42.39523181490855</v>
+        <v>42.39523181484409</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5494,7 +5494,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>37.61278357286248</v>
+        <v>37.61278357292881</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5502,7 +5502,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>32.80610245151941</v>
+        <v>32.80610245142383</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5510,7 +5510,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>35.89200569058839</v>
+        <v>35.89200569060963</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5518,7 +5518,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>20.023784082755</v>
+        <v>20.02378408281006</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5526,7 +5526,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>27.4878729173737</v>
+        <v>27.4878729173493</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5534,7 +5534,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>13.5070571366247</v>
+        <v>13.50705713671633</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5542,7 +5542,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>14.5547785162755</v>
+        <v>14.55477851639159</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5550,7 +5550,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>7.821265763068064</v>
+        <v>7.821265762959102</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5558,7 +5558,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>8.213683625936923</v>
+        <v>8.213683625855413</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5566,7 +5566,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>9.145786418352175</v>
+        <v>9.145786418357821</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5574,7 +5574,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>13.77022500125725</v>
+        <v>13.77022500122116</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5582,7 +5582,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>30.62768555436458</v>
+        <v>30.62768555433701</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5590,7 +5590,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>42.15247732986099</v>
+        <v>42.15247732986997</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5598,7 +5598,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>51.05461994344317</v>
+        <v>51.05461994350611</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5606,7 +5606,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>58.24919750579702</v>
+        <v>58.2491975058208</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5614,7 +5614,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>58.89625660723443</v>
+        <v>58.89625660716579</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5622,7 +5622,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>65.56963119441426</v>
+        <v>65.56963119439399</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5630,7 +5630,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>70.19563207966584</v>
+        <v>70.19563207956827</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5638,7 +5638,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>76.79048567862881</v>
+        <v>76.79048567870069</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5646,7 +5646,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>72.86636230038341</v>
+        <v>72.86636230033949</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5654,7 +5654,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>74.37253195774622</v>
+        <v>74.37253195779391</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5662,7 +5662,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>69.48614728152106</v>
+        <v>69.48614728156187</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5670,7 +5670,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>69.91681420046443</v>
+        <v>69.91681420051476</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5678,7 +5678,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>64.70420815748021</v>
+        <v>64.70420815737849</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5686,7 +5686,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>55.64009367162075</v>
+        <v>55.64009367164463</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5694,7 +5694,7 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>50.19553515749585</v>
+        <v>50.19553515741651</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5702,7 +5702,7 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>47.7702242508621</v>
+        <v>47.7702242509349</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5710,7 +5710,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>34.66488928082856</v>
+        <v>34.66488928073235</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5718,7 +5718,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>33.51382503853359</v>
+        <v>33.51382503856736</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5726,7 +5726,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>29.63307755422872</v>
+        <v>29.63307755420096</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5734,7 +5734,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>20.39555942970752</v>
+        <v>20.39555942962782</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5742,7 +5742,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>10.75829906401301</v>
+        <v>10.75829906399093</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5750,7 +5750,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>8.477485930849758</v>
+        <v>8.477485930789308</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5758,7 +5758,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>7.710558160594197</v>
+        <v>7.710558160597501</v>
       </c>
     </row>
   </sheetData>

--- a/exercises/dennis/exercise_4/Task_2_subgrid_results/res_line/loading_percent.xlsx
+++ b/exercises/dennis/exercise_4/Task_2_subgrid_results/res_line/loading_percent.xlsx
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.30848926478353</v>
+        <v>10.30848926486351</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.35139586761241</v>
+        <v>9.351395867591348</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -406,7 +406,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.86199162415563</v>
+        <v>10.86199162442482</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -414,7 +414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.267775695401561</v>
+        <v>8.267775695378672</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -422,7 +422,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.021563090126341</v>
+        <v>8.021563090120368</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.17253956428176</v>
+        <v>11.17253956444486</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -438,7 +438,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.01526520630708</v>
+        <v>10.01526520632861</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -446,7 +446,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.28790840670876</v>
+        <v>10.28790840683407</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -454,7 +454,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.23717246781624</v>
+        <v>15.23717246779233</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -462,7 +462,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.72267071334513</v>
+        <v>14.72267071341559</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -470,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.31530492214639</v>
+        <v>11.31530492207949</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -478,7 +478,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.29679688085377</v>
+        <v>17.29679688095431</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -486,7 +486,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.91159697458132</v>
+        <v>12.91159697458209</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -494,7 +494,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.81463307432431</v>
+        <v>16.8146330742089</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -502,7 +502,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.28416640646662</v>
+        <v>20.28416640648895</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -510,7 +510,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.48815102821096</v>
+        <v>16.48815102820224</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -518,7 +518,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.35139272703616</v>
+        <v>17.35139272706121</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -526,7 +526,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.02153696719557</v>
+        <v>15.02153696759225</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -534,7 +534,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.88868158514893</v>
+        <v>11.88868158510371</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -542,7 +542,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.99082945447066</v>
+        <v>17.99082945434393</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -550,7 +550,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.00617598832337</v>
+        <v>17.00617598820776</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -558,7 +558,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.52685583536055</v>
+        <v>21.52685583515809</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -566,7 +566,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.22642340273525</v>
+        <v>20.226423402725</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -574,7 +574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.72482360467714</v>
+        <v>16.72482360467152</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -582,7 +582,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>16.49238964544594</v>
+        <v>16.49238964547635</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>18.69640859448847</v>
+        <v>18.69640859463024</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -598,7 +598,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>17.74791136290961</v>
+        <v>17.74791136295631</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -606,7 +606,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>11.66089907488525</v>
+        <v>11.6608990749055</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -614,7 +614,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>8.052867579940642</v>
+        <v>8.052867579964678</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -622,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>17.64009159515775</v>
+        <v>17.64009159517765</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -630,7 +630,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>21.17823555799818</v>
+        <v>21.17823555798298</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -638,7 +638,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>22.97946102196446</v>
+        <v>22.97946102191016</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -646,7 +646,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>22.05413847504836</v>
+        <v>22.05413847512851</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -654,7 +654,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>26.97741818951175</v>
+        <v>26.97741818946162</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -662,7 +662,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>34.8976727177332</v>
+        <v>34.89767271788368</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -670,7 +670,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>42.44058921463697</v>
+        <v>42.44058921465513</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -678,7 +678,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>43.90694958860863</v>
+        <v>43.90694958861292</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -686,7 +686,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>52.92476628686354</v>
+        <v>52.92476628685358</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -694,7 +694,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>58.21387292564722</v>
+        <v>58.2138729258096</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -702,7 +702,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>65.82325846583923</v>
+        <v>65.82325846581554</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -710,7 +710,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>73.82903956899275</v>
+        <v>73.82903956904269</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -718,7 +718,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>80.03229086981645</v>
+        <v>80.03229086971562</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -726,7 +726,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>93.68592573401041</v>
+        <v>93.68592573401358</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -734,7 +734,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>88.17855900050344</v>
+        <v>88.17855900046899</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -742,7 +742,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>95.34598513437311</v>
+        <v>95.34598513441406</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -750,7 +750,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>91.97033341281788</v>
+        <v>91.97033341296137</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -758,7 +758,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>101.1953079959696</v>
+        <v>101.195307995949</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -766,7 +766,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>92.15528973088102</v>
+        <v>92.15528973090706</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -774,7 +774,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>95.06469687133041</v>
+        <v>95.06469687138528</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -782,7 +782,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>95.13532617102329</v>
+        <v>95.13532617090763</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -790,7 +790,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>82.99974647133267</v>
+        <v>82.99974647148335</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -798,7 +798,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>85.27787594745485</v>
+        <v>85.27787594758477</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -806,7 +806,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>82.19139797493783</v>
+        <v>82.19139797504427</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -814,7 +814,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>78.85404546079636</v>
+        <v>78.85404546083628</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -822,7 +822,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>75.34609383655665</v>
+        <v>75.34609383648487</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -830,7 +830,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>77.61294064810485</v>
+        <v>77.61294064791903</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -838,7 +838,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>70.10109856424559</v>
+        <v>70.10109856430769</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -846,7 +846,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>69.92005767297783</v>
+        <v>69.92005767290051</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -854,7 +854,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>66.00171753167733</v>
+        <v>66.00171753192978</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -862,7 +862,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>60.73745510320335</v>
+        <v>60.73745510311338</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -870,7 +870,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>60.94985193510778</v>
+        <v>60.94985193517055</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -878,7 +878,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>53.55248620984625</v>
+        <v>53.55248620984987</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -886,7 +886,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>58.56872155337718</v>
+        <v>58.5687215534027</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -894,7 +894,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>51.33240813780446</v>
+        <v>51.33240813766478</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -902,7 +902,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>42.9110632558403</v>
+        <v>42.91106325605752</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -910,7 +910,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>34.69626167663756</v>
+        <v>34.69626167653119</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -918,7 +918,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>27.19979956690988</v>
+        <v>27.19979956698456</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -926,7 +926,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>21.8441121928377</v>
+        <v>21.84411219258666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -934,7 +934,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>8.753595753909028</v>
+        <v>8.753595753880141</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -942,7 +942,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7.680779843301313</v>
+        <v>7.680779843424728</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -950,7 +950,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>17.13480738165871</v>
+        <v>17.13480738162396</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -958,7 +958,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>32.28537018885607</v>
+        <v>32.28537018888421</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -966,7 +966,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>35.19769089255529</v>
+        <v>35.19769089252014</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -974,7 +974,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>47.11585947066877</v>
+        <v>47.1158594707875</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -982,7 +982,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>63.43452775787076</v>
+        <v>63.43452775797653</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -990,7 +990,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>73.13839642017491</v>
+        <v>73.13839642019616</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -998,7 +998,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>86.32270568226909</v>
+        <v>86.32270568211295</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>80.40745251510084</v>
+        <v>80.40745251509819</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>86.02761334174662</v>
+        <v>86.02761334173559</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>88.32328493364781</v>
+        <v>88.32328493374966</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>97.47112842199927</v>
+        <v>97.47112842197139</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>90.46714753725483</v>
+        <v>90.46714753717883</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>80.9240168504061</v>
+        <v>80.92401685041017</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>81.19521631345351</v>
+        <v>81.19521631345528</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>68.57457832612069</v>
+        <v>68.57457832590087</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>74.12894651903312</v>
+        <v>74.1289465190961</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>68.96042001064957</v>
+        <v>68.96042001066456</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>52.46813222751234</v>
+        <v>52.46813222757334</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>55.44154243611835</v>
+        <v>55.44154243617501</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>43.70074095232027</v>
+        <v>43.70074095233407</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>31.16768882535705</v>
+        <v>31.1676888252546</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>22.57491758408467</v>
+        <v>22.5749175842952</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>17.38505380171237</v>
+        <v>17.38505380166249</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>10.34299449053841</v>
+        <v>10.34299449059166</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7.620053915299742</v>
+        <v>7.620053915189666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>9.699056195259647</v>
+        <v>9.699056195257876</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7.705250126984418</v>
+        <v>7.705250126950617</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>9.900087481197009</v>
+        <v>9.900087481042794</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>9.966758517954535</v>
+        <v>9.966758517912158</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>13.92709617104979</v>
+        <v>13.92709617093316</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>9.742736227180119</v>
+        <v>9.74273622707484</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>13.29457415679172</v>
+        <v>13.29457415661962</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>11.69421267675279</v>
+        <v>11.6942126766473</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>15.01114646773598</v>
+        <v>15.01114646780168</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>12.26587860922506</v>
+        <v>12.26587860926675</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>13.38206031311562</v>
+        <v>13.38206031320016</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>15.68866900826402</v>
+        <v>15.68866900824818</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>18.0079644887924</v>
+        <v>18.00796448887321</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>15.1875392581518</v>
+        <v>15.18753925817935</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>17.01513338626517</v>
+        <v>17.01513338609101</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>14.91285354617105</v>
+        <v>14.9128535462507</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>11.70167315224935</v>
+        <v>11.70167315213575</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>11.15445203176517</v>
+        <v>11.15445203164747</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>12.58270671281764</v>
+        <v>12.58270671280866</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>18.1727592020941</v>
+        <v>18.17275920205139</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>15.38698712418181</v>
+        <v>15.3869871242307</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>19.63978555060315</v>
+        <v>19.63978555067348</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>20.89334942470301</v>
+        <v>20.89334942453465</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>20.72807262960419</v>
+        <v>20.72807262948043</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>18.70979588816311</v>
+        <v>18.70979588797925</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>18.14889005225604</v>
+        <v>18.14889005237522</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>21.55498550104983</v>
+        <v>21.55498550087061</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>13.50575081569505</v>
+        <v>13.50575081561569</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>16.26763692197179</v>
+        <v>16.2676369219407</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>9.784057570930148</v>
+        <v>9.784057570944139</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>15.74255164695487</v>
+        <v>15.74255164678226</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>16.33304315489417</v>
+        <v>16.3330431548463</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>19.17041291475211</v>
+        <v>19.17041291487673</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>22.19056829812808</v>
+        <v>22.19056829809505</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>24.54843968354794</v>
+        <v>24.5484396834709</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>35.86403566211291</v>
+        <v>35.86403566211158</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>36.36228704110788</v>
+        <v>36.36228704122333</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>49.78305119210027</v>
+        <v>49.78305119216346</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>58.45753673761881</v>
+        <v>58.45753673771972</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>62.25102339741597</v>
+        <v>62.25102339754299</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>65.97331001495719</v>
+        <v>65.97331001502077</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1478,7 +1478,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>79.04382262644108</v>
+        <v>79.0438226264657</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1486,7 +1486,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>84.45287668985175</v>
+        <v>84.45287669004765</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>89.26730474411303</v>
+        <v>89.26730474397601</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>90.87255542699246</v>
+        <v>90.87255542698348</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>96.71402142399802</v>
+        <v>96.71402142401733</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>97.42546910445698</v>
+        <v>97.42546910442546</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>91.00315389665768</v>
+        <v>91.00315389693608</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>98.0657927733108</v>
+        <v>98.06579277349918</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>93.04670425157313</v>
+        <v>93.0467042514889</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1550,7 +1550,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>89.44979270712722</v>
+        <v>89.44979270706335</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1558,7 +1558,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>86.11720950058593</v>
+        <v>86.11720950056596</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1566,7 +1566,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>86.37967209670967</v>
+        <v>86.37967209684757</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1574,7 +1574,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>84.25034507616147</v>
+        <v>84.25034507623815</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1582,7 +1582,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>83.65297263052143</v>
+        <v>83.65297263050147</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>78.21702721738633</v>
+        <v>78.21702721758756</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>70.79893879360043</v>
+        <v>70.79893879356945</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>73.14654825433735</v>
+        <v>73.14654825428164</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1614,7 +1614,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>75.01427435926486</v>
+        <v>75.01427435938255</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1622,7 +1622,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>61.48421665036695</v>
+        <v>61.48421665033386</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>66.31045678868114</v>
+        <v>66.31045678856766</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>58.51707153625377</v>
+        <v>58.517071536393</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>52.55667877567807</v>
+        <v>52.55667877569253</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>54.323493102967</v>
+        <v>54.3234931027056</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>49.24727792949074</v>
+        <v>49.2472779296543</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>49.66052657160947</v>
+        <v>49.66052657166222</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>39.57799625632761</v>
+        <v>39.57799625631409</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1686,7 +1686,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>29.51429107555441</v>
+        <v>29.5142910756355</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1694,7 +1694,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>23.63229537910117</v>
+        <v>23.63229537907289</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>13.5559841512443</v>
+        <v>13.55598415125155</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>9.512027580916461</v>
+        <v>9.512027580904848</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>16.57784201487051</v>
+        <v>16.57784201491721</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>30.98155689047045</v>
+        <v>30.98155689044982</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1734,7 +1734,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>39.38629140653453</v>
+        <v>39.38629140649515</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1742,7 +1742,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>51.28603556652261</v>
+        <v>51.28603556664893</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1750,7 +1750,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>61.74136547363449</v>
+        <v>61.74136547358287</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1758,7 +1758,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>68.00126904844664</v>
+        <v>68.00126904851295</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1766,7 +1766,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>77.56185829905978</v>
+        <v>77.56185829924361</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1774,7 +1774,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>86.1896016293249</v>
+        <v>86.18960162918152</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1782,7 +1782,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>87.52908535733212</v>
+        <v>87.52908535723006</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1790,7 +1790,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>88.45322555352166</v>
+        <v>88.45322555353061</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1798,7 +1798,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>96.24492631059363</v>
+        <v>96.2449263105555</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1806,7 +1806,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>84.1335916252029</v>
+        <v>84.13359162521135</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1814,7 +1814,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>89.4204207443657</v>
+        <v>89.42042074430006</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1822,7 +1822,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>83.91364061643294</v>
+        <v>83.91364061642716</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1830,7 +1830,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>72.31353907620318</v>
+        <v>72.31353907623048</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1838,7 +1838,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>68.65913460994385</v>
+        <v>68.65913460990055</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1846,7 +1846,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>62.23686950812316</v>
+        <v>62.23686950813288</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1854,7 +1854,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>62.43587748673342</v>
+        <v>62.43587748673017</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1862,7 +1862,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>51.79118925102362</v>
+        <v>51.79118925100637</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1870,7 +1870,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>39.50636749590426</v>
+        <v>39.50636749582959</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1878,7 +1878,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>34.6708951495851</v>
+        <v>34.67089514959397</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1886,7 +1886,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>29.09803956606974</v>
+        <v>29.09803956602345</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1894,7 +1894,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>22.47113789175555</v>
+        <v>22.47113789175205</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1902,7 +1902,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>12.34364084641622</v>
+        <v>12.34364084639599</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1910,7 +1910,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7.842693159336815</v>
+        <v>7.842693159335755</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1918,7 +1918,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>8.550108551004381</v>
+        <v>8.550108551075924</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1926,7 +1926,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>8.233998569757794</v>
+        <v>8.233998569855958</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1934,7 +1934,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>8.693770147670731</v>
+        <v>8.693770147770511</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1942,7 +1942,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7.773785265574487</v>
+        <v>7.773785265712026</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1950,7 +1950,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>8.8647344474116</v>
+        <v>8.864734447406528</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1958,7 +1958,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>10.54012522378406</v>
+        <v>10.54012522392286</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1966,7 +1966,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>13.08191420675327</v>
+        <v>13.08191420668058</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1974,7 +1974,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>10.37718744543943</v>
+        <v>10.37718744553055</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1982,7 +1982,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>11.11708473679853</v>
+        <v>11.11708473668483</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1990,7 +1990,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>11.80448166561186</v>
+        <v>11.80448166557571</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -1998,7 +1998,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>9.834288667254814</v>
+        <v>9.834288667166653</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2006,7 +2006,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>14.27682086717998</v>
+        <v>14.2768208672879</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2014,7 +2014,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>16.01354563759698</v>
+        <v>16.01354563769328</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2022,7 +2022,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>18.20831452351249</v>
+        <v>18.20831452345989</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2030,7 +2030,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>11.63406947475034</v>
+        <v>11.63406947478398</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2038,7 +2038,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>13.69599321069918</v>
+        <v>13.69599321049066</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2046,7 +2046,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>17.51301637478783</v>
+        <v>17.51301637490036</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2054,7 +2054,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>18.74835109687976</v>
+        <v>18.74835109687285</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2062,7 +2062,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>14.59823453247085</v>
+        <v>14.59823453257321</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2070,7 +2070,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>15.91880538331638</v>
+        <v>15.91880538319106</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2078,7 +2078,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>24.88485894682496</v>
+        <v>24.88485894679145</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2086,7 +2086,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>20.69116715625272</v>
+        <v>20.69116715605486</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2094,7 +2094,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>19.79236049303512</v>
+        <v>19.79236049302703</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2102,7 +2102,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>24.02194994642997</v>
+        <v>24.02194994644445</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2110,7 +2110,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>22.22659569807341</v>
+        <v>22.22659569806678</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2118,7 +2118,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>17.13132006507371</v>
+        <v>17.13132006526068</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2126,7 +2126,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>14.95720634015749</v>
+        <v>14.95720634017996</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2134,7 +2134,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>16.92729441711441</v>
+        <v>16.92729441696283</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2142,7 +2142,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>12.91053965395827</v>
+        <v>12.91053965408303</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2150,7 +2150,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>13.65422782675271</v>
+        <v>13.65422782673195</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2158,7 +2158,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>14.22768691470238</v>
+        <v>14.22768691473091</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2166,7 +2166,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>14.56094807062725</v>
+        <v>14.56094807063943</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2174,7 +2174,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>19.25966583726315</v>
+        <v>19.25966583731848</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2182,7 +2182,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>22.55115092097726</v>
+        <v>22.55115092099552</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2190,7 +2190,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>20.69112285839617</v>
+        <v>20.69112285845607</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2198,7 +2198,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>36.07763369342835</v>
+        <v>36.07763369337533</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2206,7 +2206,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>43.71640289290916</v>
+        <v>43.71640289290337</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2214,7 +2214,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>50.48076213186686</v>
+        <v>50.48076213194391</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2222,7 +2222,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>54.52314481781417</v>
+        <v>54.52314481794912</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2230,7 +2230,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>65.26909252025744</v>
+        <v>65.26909252014354</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2238,7 +2238,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>67.81085236049262</v>
+        <v>67.81085236049806</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2246,7 +2246,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>77.72305933931115</v>
+        <v>77.72305933934551</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2254,7 +2254,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>82.31714013325869</v>
+        <v>82.31714013333641</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2262,7 +2262,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>85.30096878998131</v>
+        <v>85.30096879001606</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2270,7 +2270,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>96.74611597165833</v>
+        <v>96.74611597174062</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2278,7 +2278,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>94.07628078956633</v>
+        <v>94.07628078948387</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2286,7 +2286,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>89.95986132023941</v>
+        <v>89.95986132033823</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2294,7 +2294,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>95.88756523075885</v>
+        <v>95.88756523074443</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2302,7 +2302,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>93.1584460633286</v>
+        <v>93.15844606334393</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2310,7 +2310,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>92.67853426154858</v>
+        <v>92.67853426157478</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2318,7 +2318,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>89.44400607874221</v>
+        <v>89.44400607873658</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2326,7 +2326,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>87.86270512303031</v>
+        <v>87.86270512294689</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2334,7 +2334,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>81.79301207825152</v>
+        <v>81.79301207839376</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2342,7 +2342,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>87.00886805075656</v>
+        <v>87.00886805074384</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2350,7 +2350,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>81.47580737997431</v>
+        <v>81.47580737989749</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2358,7 +2358,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>80.30162981750883</v>
+        <v>80.30162981745461</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2366,7 +2366,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>76.99503059060375</v>
+        <v>76.99503059056573</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2374,7 +2374,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>71.26235444881289</v>
+        <v>71.26235444873919</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2382,7 +2382,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>68.07204947381531</v>
+        <v>68.07204947378098</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2390,7 +2390,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>66.93605262806732</v>
+        <v>66.93605262803051</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2398,7 +2398,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>62.05863056721815</v>
+        <v>62.05863056722095</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2406,7 +2406,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>61.29368185296878</v>
+        <v>61.29368185286049</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2414,7 +2414,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>55.9050166029057</v>
+        <v>55.90501660269614</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2422,7 +2422,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>51.73960630946964</v>
+        <v>51.73960630949372</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2430,7 +2430,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>54.24911095911163</v>
+        <v>54.2491109591095</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2438,7 +2438,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>48.15018166893154</v>
+        <v>48.15018166885037</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2446,7 +2446,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>40.88801238584779</v>
+        <v>40.88801238562374</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2454,7 +2454,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>24.28167887566352</v>
+        <v>24.28167887579221</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2462,7 +2462,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>18.92181953719273</v>
+        <v>18.92181953717748</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2470,7 +2470,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>9.948747756372303</v>
+        <v>9.948747756270643</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2478,7 +2478,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>8.178420103608033</v>
+        <v>8.178420103609854</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2486,7 +2486,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>18.89788159908642</v>
+        <v>18.89788159914491</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2494,7 +2494,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>32.02252751690504</v>
+        <v>32.02252751678875</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2502,7 +2502,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>36.63515051271708</v>
+        <v>36.63515051265966</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2510,7 +2510,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>47.78023057135092</v>
+        <v>47.78023057146217</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2518,7 +2518,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>61.02006778741168</v>
+        <v>61.02006778754053</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2526,7 +2526,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>64.61432015168988</v>
+        <v>64.61432015172772</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2534,7 +2534,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>80.39863121423578</v>
+        <v>80.39863121418225</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2542,7 +2542,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>86.59153246480352</v>
+        <v>86.59153246486861</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2550,7 +2550,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>86.7893710459541</v>
+        <v>86.78937104612187</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2558,7 +2558,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>86.85912736768591</v>
+        <v>86.85912736777021</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2566,7 +2566,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>87.52888294024849</v>
+        <v>87.52888294036111</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2574,7 +2574,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>81.95696332175572</v>
+        <v>81.95696332182197</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2582,7 +2582,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>77.52168105182469</v>
+        <v>77.52168105177269</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2590,7 +2590,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>81.25054771441148</v>
+        <v>81.25054771422836</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2598,7 +2598,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>68.35395318881025</v>
+        <v>68.35395318893735</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2606,7 +2606,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>69.96529136053724</v>
+        <v>69.96529136063228</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2614,7 +2614,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>62.43678687614371</v>
+        <v>62.43678687624733</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2622,7 +2622,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>63.77827632534927</v>
+        <v>63.77827632527078</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2630,7 +2630,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>55.63868552942497</v>
+        <v>55.6386855296242</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2638,7 +2638,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>45.14671005568434</v>
+        <v>45.14671005583676</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2646,7 +2646,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>33.04577418619966</v>
+        <v>33.04577418613189</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2654,7 +2654,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>25.4546621772037</v>
+        <v>25.45466217725465</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2662,7 +2662,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>13.95052960692628</v>
+        <v>13.95052960687334</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2670,7 +2670,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>13.7331939878546</v>
+        <v>13.73319398779652</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2678,7 +2678,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>10.42662285901268</v>
+        <v>10.42662285892782</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2686,7 +2686,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7.614858901096152</v>
+        <v>7.614858901166565</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2694,7 +2694,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>14.24006801413559</v>
+        <v>14.24006801405806</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2702,7 +2702,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>9.358884336145289</v>
+        <v>9.358884336280839</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2710,7 +2710,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>15.00567794488489</v>
+        <v>15.00567794480661</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2718,7 +2718,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7.960522686129931</v>
+        <v>7.960522685977299</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2726,7 +2726,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>11.26664448075454</v>
+        <v>11.26664448088002</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2734,7 +2734,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>8.342360272963449</v>
+        <v>8.34236027283319</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2742,7 +2742,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>14.96757204424309</v>
+        <v>14.96757204408014</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2750,7 +2750,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>8.255551093401495</v>
+        <v>8.255551093394708</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2758,7 +2758,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>14.15463487369852</v>
+        <v>14.15463487372148</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2766,7 +2766,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>14.6654387480482</v>
+        <v>14.66543874804083</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2774,7 +2774,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>9.351478370916057</v>
+        <v>9.351478370956992</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2782,7 +2782,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>14.29891034029737</v>
+        <v>14.29891034020632</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2790,7 +2790,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>15.27732236158309</v>
+        <v>15.27732236163654</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2798,7 +2798,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>13.2852308185459</v>
+        <v>13.28523081852603</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2806,7 +2806,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>11.23606232535935</v>
+        <v>11.23606232532979</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2814,7 +2814,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>15.28799854170823</v>
+        <v>15.28799854158701</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2822,7 +2822,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>16.23295955343518</v>
+        <v>16.23295955352053</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2830,7 +2830,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>19.16402208522309</v>
+        <v>19.16402208529643</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2838,7 +2838,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>18.15827303105221</v>
+        <v>18.15827303088434</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2846,7 +2846,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>17.22921410369085</v>
+        <v>17.22921410358077</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2854,7 +2854,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>14.71538130390864</v>
+        <v>14.71538130388983</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2862,7 +2862,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>25.50679288596213</v>
+        <v>25.5067928860662</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2870,7 +2870,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>21.25413738799883</v>
+        <v>21.2541373881895</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2878,7 +2878,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>19.79440906274204</v>
+        <v>19.79440906275845</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2886,7 +2886,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>21.44033455486923</v>
+        <v>21.44033455468495</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2894,7 +2894,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>20.30620022704194</v>
+        <v>20.30620022707616</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2902,7 +2902,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>15.85451598880696</v>
+        <v>15.85451598880308</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2910,7 +2910,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>13.60752360407987</v>
+        <v>13.60752360409505</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2918,7 +2918,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>10.20988309290803</v>
+        <v>10.2098830930461</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2926,7 +2926,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>14.5505016281476</v>
+        <v>14.55050162812305</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2934,7 +2934,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>18.41459028186882</v>
+        <v>18.41459028199582</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2942,7 +2942,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>19.49190405853959</v>
+        <v>19.49190405849679</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2950,7 +2950,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>22.21019630825477</v>
+        <v>22.21019630817463</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2958,7 +2958,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>32.61438556864064</v>
+        <v>32.61438556866659</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2966,7 +2966,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>29.68545853214599</v>
+        <v>29.68545853200771</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2974,7 +2974,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>39.98203704841373</v>
+        <v>39.98203704827351</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2982,7 +2982,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>44.26009298755231</v>
+        <v>44.26009298740162</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2990,7 +2990,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>58.47827747177243</v>
+        <v>58.47827747172914</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -2998,7 +2998,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>65.693819096594</v>
+        <v>65.69381909657974</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3006,7 +3006,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>73.08226609865626</v>
+        <v>73.08226609877676</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3014,7 +3014,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>75.77423037594005</v>
+        <v>75.77423037611534</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3022,7 +3022,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>82.39009350425644</v>
+        <v>82.39009350434337</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3030,7 +3030,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>92.02254385670776</v>
+        <v>92.0225438567329</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3038,7 +3038,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>88.27057387285393</v>
+        <v>88.27057387283365</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3046,7 +3046,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>93.43184915667169</v>
+        <v>93.43184915670921</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3054,7 +3054,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>100.1012719804412</v>
+        <v>100.1012719803834</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3062,7 +3062,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>93.55230886702466</v>
+        <v>93.55230886699482</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3070,7 +3070,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>98.69456611120472</v>
+        <v>98.69456611118537</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3078,7 +3078,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>94.04142601186187</v>
+        <v>94.04142601180298</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3086,7 +3086,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>92.54734755733125</v>
+        <v>92.54734755749105</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3094,7 +3094,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>93.6800062243076</v>
+        <v>93.68000622439882</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3102,7 +3102,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>88.41121040387401</v>
+        <v>88.41121040393402</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3110,7 +3110,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>82.74142596958035</v>
+        <v>82.74142596948982</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3118,7 +3118,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>82.0253063691578</v>
+        <v>82.02530636915453</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3126,7 +3126,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>80.32592953438566</v>
+        <v>80.32592953453975</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3134,7 +3134,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>78.25090818426521</v>
+        <v>78.25090818439419</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3142,7 +3142,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>69.85235021275639</v>
+        <v>69.8523502127162</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3150,7 +3150,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>67.57196338363455</v>
+        <v>67.5719633837577</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3158,7 +3158,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>60.61473094502687</v>
+        <v>60.61473094503984</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3166,7 +3166,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>56.38312653451041</v>
+        <v>56.38312653454843</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3174,7 +3174,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>60.31411057709632</v>
+        <v>60.31411057707502</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3182,7 +3182,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>53.09657989118715</v>
+        <v>53.09657989137963</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3190,7 +3190,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>53.09547352662683</v>
+        <v>53.09547352671379</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3198,7 +3198,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>50.27335695803686</v>
+        <v>50.27335695790287</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3206,7 +3206,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>39.88043663553955</v>
+        <v>39.88043663542168</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3214,7 +3214,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>36.32471553425283</v>
+        <v>36.32471553431363</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3222,7 +3222,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>26.09227944030934</v>
+        <v>26.09227944047456</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3230,7 +3230,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>23.53018474415983</v>
+        <v>23.53018474411185</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3238,7 +3238,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>14.63536900775491</v>
+        <v>14.63536900766167</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3246,7 +3246,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>7.615058950341083</v>
+        <v>7.61505895040735</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3254,7 +3254,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>15.40021668574941</v>
+        <v>15.40021668585737</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3262,7 +3262,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>32.00465890307816</v>
+        <v>32.00465890316986</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3270,7 +3270,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>46.04532217066344</v>
+        <v>46.04532217051026</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3278,7 +3278,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>50.37966662549741</v>
+        <v>50.37966662554536</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3286,7 +3286,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>55.10021105625732</v>
+        <v>55.1002110563897</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3294,7 +3294,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>63.59445672543802</v>
+        <v>63.59445672539964</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3302,7 +3302,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>80.00314563094786</v>
+        <v>80.00314563100662</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3310,7 +3310,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>82.84273812761349</v>
+        <v>82.84273812764782</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3318,7 +3318,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>87.15398032224429</v>
+        <v>87.15398032204925</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3326,7 +3326,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>89.16633060151062</v>
+        <v>89.16633060146398</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3334,7 +3334,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>87.00959144828816</v>
+        <v>87.00959144837124</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3342,7 +3342,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>83.70846286408077</v>
+        <v>83.70846286410864</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3350,7 +3350,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>81.86678428751379</v>
+        <v>81.86678428758451</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3358,7 +3358,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>83.31625251460231</v>
+        <v>83.31625251453836</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3366,7 +3366,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>70.73244709810916</v>
+        <v>70.73244709806156</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3374,7 +3374,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>71.49549665203455</v>
+        <v>71.4954966519492</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3382,7 +3382,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>58.49943179030853</v>
+        <v>58.49943179032721</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3390,7 +3390,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>66.2127307867428</v>
+        <v>66.21273078671901</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3398,7 +3398,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>45.75561265822089</v>
+        <v>45.75561265830001</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3406,7 +3406,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>45.26842720253579</v>
+        <v>45.26842720248274</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3414,7 +3414,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>30.76856095011436</v>
+        <v>30.7685609499666</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3422,7 +3422,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>25.60147987996045</v>
+        <v>25.60147987981065</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3430,7 +3430,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>22.35911943201783</v>
+        <v>22.35911943199675</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3438,7 +3438,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>15.45874291961014</v>
+        <v>15.4587429197217</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3446,7 +3446,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>7.614669705680131</v>
+        <v>7.614669705667001</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3454,7 +3454,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>8.398416748575199</v>
+        <v>8.398416748578342</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3462,7 +3462,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>8.573446187576209</v>
+        <v>8.573446187529674</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3470,7 +3470,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>13.11402739054793</v>
+        <v>13.11402739048164</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3478,7 +3478,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>12.69604068150843</v>
+        <v>12.69604068138607</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3486,7 +3486,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>12.8277747858393</v>
+        <v>12.82777478590481</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3494,7 +3494,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>13.90089497903465</v>
+        <v>13.90089497896788</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3502,7 +3502,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>11.15272620482588</v>
+        <v>11.15272620486459</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3510,7 +3510,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>11.47802399256719</v>
+        <v>11.47802399256989</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3518,7 +3518,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>14.96160842392094</v>
+        <v>14.96160842395984</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3526,7 +3526,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>17.62117175160291</v>
+        <v>17.62117175158885</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3534,7 +3534,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>17.58909724649187</v>
+        <v>17.5890972464512</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3542,7 +3542,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>11.96004188407512</v>
+        <v>11.96004188420953</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3550,7 +3550,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>11.42193744341614</v>
+        <v>11.42193744334834</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3558,7 +3558,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>12.94119252106402</v>
+        <v>12.9411925209679</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3566,7 +3566,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>15.0227191351248</v>
+        <v>15.02271913508184</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3574,7 +3574,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>15.43212823692995</v>
+        <v>15.43212823662198</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3582,7 +3582,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>17.99304831402992</v>
+        <v>17.99304831418237</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3590,7 +3590,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>13.87084529301926</v>
+        <v>13.87084529301809</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3598,7 +3598,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>17.52358014022947</v>
+        <v>17.5235801402072</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3606,7 +3606,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>22.63929524997888</v>
+        <v>22.63929524987721</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3614,7 +3614,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>17.24142617153385</v>
+        <v>17.24142617151353</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3622,7 +3622,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>13.81618216973254</v>
+        <v>13.81618216976103</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3630,7 +3630,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>21.23052656933647</v>
+        <v>21.23052656951512</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3638,7 +3638,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>20.41513328842757</v>
+        <v>20.41513328845872</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3646,7 +3646,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>14.24413452976379</v>
+        <v>14.24413452993027</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3654,7 +3654,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>24.9627306534437</v>
+        <v>24.96273065324575</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3662,7 +3662,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>19.80324078749522</v>
+        <v>19.80324078754468</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3670,7 +3670,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>16.9450511100055</v>
+        <v>16.9450511100859</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3678,7 +3678,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>16.79467075556845</v>
+        <v>16.7946707556963</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3686,7 +3686,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>10.30967734274849</v>
+        <v>10.30967734273717</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3694,7 +3694,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>17.26342649636898</v>
+        <v>17.26342649634609</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3702,7 +3702,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>15.60050552005022</v>
+        <v>15.60050552007375</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3710,7 +3710,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>16.78928666673343</v>
+        <v>16.78928666692666</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3718,7 +3718,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>20.28912758749735</v>
+        <v>20.28912758746687</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3726,7 +3726,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>21.29034015562944</v>
+        <v>21.29034015561166</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3734,7 +3734,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>30.2768627683669</v>
+        <v>30.27686276833915</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3742,7 +3742,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>36.13210587927754</v>
+        <v>36.13210587932657</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3750,7 +3750,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>49.47073324049637</v>
+        <v>49.47073324054755</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3758,7 +3758,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>56.09814285065519</v>
+        <v>56.09814285054979</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3766,7 +3766,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>61.02032412146274</v>
+        <v>61.02032412137524</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3774,7 +3774,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>66.59206952389046</v>
+        <v>66.59206952381251</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3782,7 +3782,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>76.24029522926141</v>
+        <v>76.2402952292133</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3790,7 +3790,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>80.52211562882168</v>
+        <v>80.52211562879337</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3798,7 +3798,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>87.49461985665121</v>
+        <v>87.49461985666161</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3806,7 +3806,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>89.42985177903078</v>
+        <v>89.42985177891086</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3814,7 +3814,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>97.29885657625537</v>
+        <v>97.29885657621689</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3822,7 +3822,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>96.00219655389026</v>
+        <v>96.00219655389274</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3830,7 +3830,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>94.88147596092172</v>
+        <v>94.88147596092118</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3838,7 +3838,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>93.93908194134642</v>
+        <v>93.93908194133874</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3846,7 +3846,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>98.6040257719129</v>
+        <v>98.60402577190243</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3854,7 +3854,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>91.50152525830973</v>
+        <v>91.50152525840687</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3862,7 +3862,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>84.0291609163085</v>
+        <v>84.02916091626236</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3870,7 +3870,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>84.31869413259162</v>
+        <v>84.31869413269011</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3878,7 +3878,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>85.64131011761611</v>
+        <v>85.64131011754903</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3886,7 +3886,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>81.10649194931003</v>
+        <v>81.10649194916327</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3894,7 +3894,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>76.44866808219727</v>
+        <v>76.44866808207067</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3902,7 +3902,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>76.73786308180792</v>
+        <v>76.73786308174995</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3910,7 +3910,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>72.52255303617103</v>
+        <v>72.52255303615843</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3918,7 +3918,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>66.9250839700443</v>
+        <v>66.92508397006692</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3926,7 +3926,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>64.79494220924632</v>
+        <v>64.79494220931322</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3934,7 +3934,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>62.96263792782404</v>
+        <v>62.96263792767595</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3942,7 +3942,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>64.36287047694501</v>
+        <v>64.36287047673312</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3950,7 +3950,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>56.30429012643946</v>
+        <v>56.30429012641358</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3958,7 +3958,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>49.75865985225069</v>
+        <v>49.75865985236954</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3966,7 +3966,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>46.95123370867304</v>
+        <v>46.95123370872918</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3974,7 +3974,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>46.87187674836073</v>
+        <v>46.87187674856568</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3982,7 +3982,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>42.56261831676071</v>
+        <v>42.56261831667382</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3990,7 +3990,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>22.85767695026262</v>
+        <v>22.85767695021185</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>22.15919077677329</v>
+        <v>22.15919077679217</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4006,7 +4006,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>12.31485384393736</v>
+        <v>12.31485384415774</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4014,7 +4014,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>8.832931194107051</v>
+        <v>8.832931194125187</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4022,7 +4022,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>15.10746887117699</v>
+        <v>15.10746887119804</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4030,7 +4030,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>29.92366384859504</v>
+        <v>29.92366384866002</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4038,7 +4038,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>38.14790041299735</v>
+        <v>38.14790041292134</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4046,7 +4046,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>48.29233981484948</v>
+        <v>48.29233981468738</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4054,7 +4054,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>57.10690147725291</v>
+        <v>57.10690147737567</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4062,7 +4062,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>66.00606963123791</v>
+        <v>66.00606963118814</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4070,7 +4070,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>77.17882036285289</v>
+        <v>77.17882036276524</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4078,7 +4078,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>76.7696210254756</v>
+        <v>76.76962102549541</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4086,7 +4086,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>83.35763947573768</v>
+        <v>83.35763947579173</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4094,7 +4094,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>83.27650936154942</v>
+        <v>83.27650936166761</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4102,7 +4102,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>90.95385567974304</v>
+        <v>90.95385567969056</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4110,7 +4110,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>88.55265163280008</v>
+        <v>88.55265163284569</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4118,7 +4118,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>84.14921877809515</v>
+        <v>84.14921877796763</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4126,7 +4126,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>80.45522820256167</v>
+        <v>80.45522820250767</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4134,7 +4134,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>73.82618783731834</v>
+        <v>73.82618783734429</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4142,7 +4142,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>69.94505109467993</v>
+        <v>69.94505109472044</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4150,7 +4150,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>64.42988019684972</v>
+        <v>64.42988019680502</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4158,7 +4158,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>51.87968727426846</v>
+        <v>51.87968727434791</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4166,7 +4166,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>51.77658937680666</v>
+        <v>51.77658937682739</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4174,7 +4174,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>45.00622977332085</v>
+        <v>45.00622977337567</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4182,7 +4182,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>30.90105054302289</v>
+        <v>30.90105054289738</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4190,7 +4190,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>27.36549836934271</v>
+        <v>27.36549836932195</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4198,7 +4198,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>17.97295718527577</v>
+        <v>17.97295718531601</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4206,7 +4206,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>10.94979227976738</v>
+        <v>10.94979227988578</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4214,7 +4214,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>9.328052985387567</v>
+        <v>9.328052985420134</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4222,7 +4222,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>7.655105023486196</v>
+        <v>7.655105023423768</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4230,7 +4230,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>13.22124351145625</v>
+        <v>13.22124351142613</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4238,7 +4238,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>12.16367986767928</v>
+        <v>12.16367986773454</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4246,7 +4246,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>13.15496677994788</v>
+        <v>13.15496677988511</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4254,7 +4254,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>14.69943308474606</v>
+        <v>14.69943308470576</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4262,7 +4262,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>13.02575733638819</v>
+        <v>13.02575733645624</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4270,7 +4270,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>10.92606148127172</v>
+        <v>10.92606148117492</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4278,7 +4278,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>10.31460445224887</v>
+        <v>10.3146044522841</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4286,7 +4286,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>13.11433497309676</v>
+        <v>13.11433497336449</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4294,7 +4294,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>10.46704292895418</v>
+        <v>10.4670429290453</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4302,7 +4302,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>14.63000770571012</v>
+        <v>14.63000770563225</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4310,7 +4310,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>10.19140775657382</v>
+        <v>10.19140775660041</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4318,7 +4318,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>10.24654276899555</v>
+        <v>10.2465427688466</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4326,7 +4326,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>12.39454598351915</v>
+        <v>12.39454598332526</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4334,7 +4334,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>13.27446376200211</v>
+        <v>13.2744637621381</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4342,7 +4342,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>17.26606782746989</v>
+        <v>17.26606782754063</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4350,7 +4350,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>10.81700016386363</v>
+        <v>10.81700016393738</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4358,7 +4358,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>12.95328472495479</v>
+        <v>12.95328472499777</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4366,7 +4366,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>15.48073013162974</v>
+        <v>15.48073013163953</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4374,7 +4374,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>12.84482591770932</v>
+        <v>12.84482591769624</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>17.29841154636005</v>
+        <v>17.2984115464144</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4390,7 +4390,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>17.1854369622348</v>
+        <v>17.18543696224726</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4398,7 +4398,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>21.45186872143301</v>
+        <v>21.45186872144331</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4406,7 +4406,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>18.69291124377636</v>
+        <v>18.69291124384496</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4414,7 +4414,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>27.80107170396145</v>
+        <v>27.80107170405185</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4422,7 +4422,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>23.24441051893665</v>
+        <v>23.2444105190161</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4430,7 +4430,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>23.23884328162634</v>
+        <v>23.23884328158679</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4438,7 +4438,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>23.2274857151806</v>
+        <v>23.22748571514834</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4446,7 +4446,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>19.64613531108176</v>
+        <v>19.6461353110166</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4454,7 +4454,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>27.69173604307669</v>
+        <v>27.69173604314978</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4462,7 +4462,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>31.75451071255183</v>
+        <v>31.75451071244546</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>25.50622818531673</v>
+        <v>25.50622818536415</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>33.57090329452291</v>
+        <v>33.57090329468645</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4486,7 +4486,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>36.1674003578069</v>
+        <v>36.16740035770734</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>39.60934980581596</v>
+        <v>39.6093498057899</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>34.44493349731483</v>
+        <v>34.44493349736737</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>48.07260350714029</v>
+        <v>48.07260350709033</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>47.24339068848919</v>
+        <v>47.24339068846761</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>45.75471849001289</v>
+        <v>45.75471849009452</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>53.82031110968582</v>
+        <v>53.82031110962112</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>56.24551060069446</v>
+        <v>56.2455106006481</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>56.35882233655123</v>
+        <v>56.35882233655185</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4558,7 +4558,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>55.35502441079062</v>
+        <v>55.35502441072668</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4566,7 +4566,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>55.92220957731002</v>
+        <v>55.92220957734735</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4574,7 +4574,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>58.7960969304667</v>
+        <v>58.79609693056845</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4582,7 +4582,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>62.88756783297271</v>
+        <v>62.88756783296634</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4590,7 +4590,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>59.80940375191882</v>
+        <v>59.80940375193684</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4598,7 +4598,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>65.00951543057263</v>
+        <v>65.00951543071301</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4606,7 +4606,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>64.59641958074316</v>
+        <v>64.59641958073156</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4614,7 +4614,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>64.88176292921625</v>
+        <v>64.88176292934673</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4622,7 +4622,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>68.54745742006459</v>
+        <v>68.54745742019726</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4630,7 +4630,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>62.46549771499609</v>
+        <v>62.46549771517922</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4638,7 +4638,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>66.40899542418221</v>
+        <v>66.40899542437595</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4646,7 +4646,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>60.18754166495878</v>
+        <v>60.18754166509414</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4654,7 +4654,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>61.18720377259044</v>
+        <v>61.18720377231844</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4662,7 +4662,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>56.77487278212055</v>
+        <v>56.77487278203187</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4670,7 +4670,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>56.92536332589585</v>
+        <v>56.92536332573118</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4678,7 +4678,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>51.56107945926175</v>
+        <v>51.56107945925604</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4686,7 +4686,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>48.54274500767139</v>
+        <v>48.54274500771987</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4694,7 +4694,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>49.30834085626271</v>
+        <v>49.30834085653253</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4702,7 +4702,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>42.54660659597993</v>
+        <v>42.54660659598801</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4710,7 +4710,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>34.61729179857513</v>
+        <v>34.61729179859114</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4718,7 +4718,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>34.71775869999546</v>
+        <v>34.71775869991248</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4726,7 +4726,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>28.4904352029995</v>
+        <v>28.49043520284129</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4734,7 +4734,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>27.44556003275211</v>
+        <v>27.44556003279014</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4742,7 +4742,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>20.7871610187957</v>
+        <v>20.78716101881556</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4750,7 +4750,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>14.39461418013419</v>
+        <v>14.39461418007337</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4758,7 +4758,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>8.882890364640557</v>
+        <v>8.88289036456344</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4766,7 +4766,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>10.57319471223912</v>
+        <v>10.57319471218871</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4774,7 +4774,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>11.17109435079267</v>
+        <v>11.17109435085604</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4782,7 +4782,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>27.25915551541664</v>
+        <v>27.25915551521631</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4790,7 +4790,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>38.25696610586191</v>
+        <v>38.25696610579418</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4798,7 +4798,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>48.88472726996205</v>
+        <v>48.88472726982641</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4806,7 +4806,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>62.95659933086224</v>
+        <v>62.95659933091541</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4814,7 +4814,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>73.45600224481585</v>
+        <v>73.45600224455686</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4822,7 +4822,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>75.31245257903566</v>
+        <v>75.31245257910253</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4830,7 +4830,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>79.08560316308947</v>
+        <v>79.08560316290077</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4838,7 +4838,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>93.72038349409382</v>
+        <v>93.72038349417309</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4846,7 +4846,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>100.2824534213736</v>
+        <v>100.2824534214491</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4854,7 +4854,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>97.3048718343547</v>
+        <v>97.30487183447181</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4862,7 +4862,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>105.3577150139742</v>
+        <v>105.3577150139307</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4870,7 +4870,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>111.5202184173458</v>
+        <v>111.5202184174159</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4878,7 +4878,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>103.1633254458412</v>
+        <v>103.163325445908</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4886,7 +4886,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>95.1224880037993</v>
+        <v>95.12248800363064</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4894,7 +4894,7 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>93.39753489010846</v>
+        <v>93.39753489006478</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4902,7 +4902,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>95.9340789853337</v>
+        <v>95.93407898538257</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4910,7 +4910,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>84.91543941845615</v>
+        <v>84.91543941832532</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4918,7 +4918,7 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>74.75289250394511</v>
+        <v>74.75289250411763</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4926,7 +4926,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>65.74691508630725</v>
+        <v>65.74691508621024</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4934,7 +4934,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>67.18895942565223</v>
+        <v>67.18895942556607</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4942,7 +4942,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>53.11602577115699</v>
+        <v>53.11602577113812</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4950,7 +4950,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>36.81816080405755</v>
+        <v>36.81816080411312</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4958,7 +4958,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>33.08159588291622</v>
+        <v>33.08159588277639</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4966,7 +4966,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>24.41292367831968</v>
+        <v>24.41292367822673</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4974,7 +4974,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>15.63296117674177</v>
+        <v>15.63296117669193</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4982,7 +4982,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>11.41043869270139</v>
+        <v>11.41043869276464</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4990,7 +4990,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>10.67432164472683</v>
+        <v>10.67432164476747</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -4998,7 +4998,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>9.967392265669762</v>
+        <v>9.967392265541514</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5006,7 +5006,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>7.7467667907934</v>
+        <v>7.746766790692532</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>9.839560453700024</v>
+        <v>9.839560453652309</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>10.90102852758538</v>
+        <v>10.90102852761322</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>9.857562873879592</v>
+        <v>9.8575628738416</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>12.96360423616897</v>
+        <v>12.96360423611882</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>8.781997277468729</v>
+        <v>8.781997277532769</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>9.104905192449776</v>
+        <v>9.104905192418611</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>11.37695958935035</v>
+        <v>11.37695958943787</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>14.440013818007</v>
+        <v>14.44001381790981</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5078,7 +5078,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>16.76169081212692</v>
+        <v>16.76169081209999</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5086,7 +5086,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>14.15878005312213</v>
+        <v>14.15878005314747</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5094,7 +5094,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>13.45233318785772</v>
+        <v>13.45233318787689</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5102,7 +5102,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>11.44227967528971</v>
+        <v>11.44227967547603</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5110,7 +5110,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>12.57973598407225</v>
+        <v>12.57973598399951</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5118,7 +5118,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>15.38598210588108</v>
+        <v>15.38598210589957</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5126,7 +5126,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>13.12624598104907</v>
+        <v>13.12624598107842</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5134,7 +5134,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>15.16719831905112</v>
+        <v>15.16719831906917</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5142,7 +5142,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>17.1719440668791</v>
+        <v>17.17194406688237</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5150,7 +5150,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>13.99810529015376</v>
+        <v>13.99810529008831</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5158,7 +5158,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>16.6764155329818</v>
+        <v>16.67641553308577</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5166,7 +5166,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>20.96345578071361</v>
+        <v>20.96345578054898</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5174,7 +5174,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>29.89257762259163</v>
+        <v>29.89257762259033</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5182,7 +5182,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>28.13867108746464</v>
+        <v>28.13867108746266</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5190,7 +5190,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>36.54272760344766</v>
+        <v>36.5427276034896</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5198,7 +5198,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>33.59938263613311</v>
+        <v>33.59938263610529</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5206,7 +5206,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>42.63487654075542</v>
+        <v>42.63487654065653</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5214,7 +5214,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>50.97710625452674</v>
+        <v>50.97710625471555</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5222,7 +5222,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>45.35757175933167</v>
+        <v>45.35757175935444</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>47.56955906358832</v>
+        <v>47.56955906362557</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>53.31070208460812</v>
+        <v>53.3107020845904</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>61.13141023522088</v>
+        <v>61.13141023524224</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>69.09016566826915</v>
+        <v>69.09016566843769</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>62.39038594281639</v>
+        <v>62.39038594277385</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>62.37405694145585</v>
+        <v>62.37405694139724</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>64.12614334363117</v>
+        <v>64.12614334365104</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>61.4277399228779</v>
+        <v>61.42773992276587</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>63.16136632432022</v>
+        <v>63.16136632414248</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>59.62876175205115</v>
+        <v>59.62876175223079</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>54.64849830115863</v>
+        <v>54.64849830105192</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>58.34420509028948</v>
+        <v>58.34420509032793</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>47.24658222332626</v>
+        <v>47.24658222353322</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>49.66622285418635</v>
+        <v>49.6662228541016</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>37.7921744832587</v>
+        <v>37.79217448328291</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>43.2213196542749</v>
+        <v>43.2213196543039</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>37.31143880804029</v>
+        <v>37.31143880793532</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>37.83115310260082</v>
+        <v>37.8311531025487</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>33.6115236019545</v>
+        <v>33.61152360193439</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>21.93110136064265</v>
+        <v>21.9311013606026</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>23.89824062666491</v>
+        <v>23.89824062662397</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>24.41957555981639</v>
+        <v>24.41957555989742</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>20.86814584457989</v>
+        <v>20.86814584451912</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>26.28184888898885</v>
+        <v>26.2818488889273</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>31.14582427077186</v>
+        <v>31.14582427074281</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>32.6770286802863</v>
+        <v>32.67702868020238</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>26.98407398285264</v>
+        <v>26.98407398282786</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5446,7 +5446,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>35.06089469278268</v>
+        <v>35.06089469272089</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5454,7 +5454,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>34.40047345360616</v>
+        <v>34.40047345349961</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5462,7 +5462,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>34.9619724754153</v>
+        <v>34.96197247536957</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5470,7 +5470,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>43.32967413543682</v>
+        <v>43.32967413553996</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5478,7 +5478,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>39.65857152501281</v>
+        <v>39.65857152493696</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5486,7 +5486,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>42.39523181490855</v>
+        <v>42.39523181483711</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5494,7 +5494,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>37.61278357286248</v>
+        <v>37.61278357297863</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5502,7 +5502,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>32.80610245151941</v>
+        <v>32.80610245169812</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5510,7 +5510,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>35.89200569058839</v>
+        <v>35.89200569041917</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5518,7 +5518,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>20.023784082755</v>
+        <v>20.02378408275793</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5526,7 +5526,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>27.4878729173737</v>
+        <v>27.48787291742318</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5534,7 +5534,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>13.5070571366247</v>
+        <v>13.50705713674633</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5542,7 +5542,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>14.5547785162755</v>
+        <v>14.5547785163066</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5550,7 +5550,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>7.821265763068064</v>
+        <v>7.821265763048634</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5558,7 +5558,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>8.213683625936923</v>
+        <v>8.213683625901993</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5566,7 +5566,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>9.145786418352175</v>
+        <v>9.145786418441647</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5574,7 +5574,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>13.77022500125725</v>
+        <v>13.77022500127791</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5582,7 +5582,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>30.62768555436458</v>
+        <v>30.62768555426309</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5590,7 +5590,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>42.15247732986099</v>
+        <v>42.15247732987529</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5598,7 +5598,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>51.05461994344317</v>
+        <v>51.05461994354994</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5606,7 +5606,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>58.24919750579702</v>
+        <v>58.24919750583941</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5614,7 +5614,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>58.89625660723443</v>
+        <v>58.8962566071687</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5622,7 +5622,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>65.56963119441426</v>
+        <v>65.56963119448162</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5630,7 +5630,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>70.19563207966584</v>
+        <v>70.19563207967833</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5638,7 +5638,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>76.79048567862881</v>
+        <v>76.79048567859999</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5646,7 +5646,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>72.86636230038341</v>
+        <v>72.86636230037428</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5654,7 +5654,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>74.37253195774622</v>
+        <v>74.372531957699</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5662,7 +5662,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>69.48614728152106</v>
+        <v>69.48614728140865</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5670,7 +5670,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>69.91681420046443</v>
+        <v>69.9168142004423</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5678,7 +5678,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>64.70420815748021</v>
+        <v>64.70420815742737</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5686,7 +5686,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>55.64009367162075</v>
+        <v>55.64009367163685</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5694,7 +5694,7 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>50.19553515749585</v>
+        <v>50.19553515737315</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5702,7 +5702,7 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>47.7702242508621</v>
+        <v>47.77022425081851</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5710,7 +5710,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>34.66488928082856</v>
+        <v>34.66488928072566</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5718,7 +5718,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>33.51382503853359</v>
+        <v>33.51382503855848</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5726,7 +5726,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>29.63307755422872</v>
+        <v>29.63307755409107</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5734,7 +5734,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>20.39555942970752</v>
+        <v>20.39555942975736</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5742,7 +5742,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>10.75829906401301</v>
+        <v>10.75829906402046</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5750,7 +5750,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>8.477485930849758</v>
+        <v>8.477485930892117</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5758,7 +5758,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>7.710558160594197</v>
+        <v>7.710558160591761</v>
       </c>
     </row>
   </sheetData>
